--- a/pyecom_tomas/data/EC_V4_new_UC1.xlsx
+++ b/pyecom_tomas/data/EC_V4_new_UC1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa.sharepoint.com/sites/HEU-EV4EU-Project-INESCID-InternalfilesShare/Documentos Partilhados/INESCID-Internal files Share/WP2/D2.5/Methods and use case/Data_UC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\laris\EV4EU2\task2_5\energy_communities_management\pyecom_tomas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{6E65A6B7-46F8-42E2-8CE3-ABEAB7D52F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31546BB1-DB57-4AA8-9206-6056133070D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C257432-7541-43F5-A0FC-71C8545C6D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Information" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="152">
   <si>
     <t>General Information</t>
   </si>
@@ -520,7 +520,7 @@
     <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;???????\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2048,43 +2048,40 @@
     </xf>
   </cellXfs>
   <cellStyles count="149">
-    <cellStyle name="20% - Accent1" xfId="125" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="129" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="133" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="137" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="141" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="145" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="126" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="130" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="134" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="138" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="142" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="146" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="127" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="131" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="135" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="139" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="143" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="147" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="124" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="128" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="132" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="136" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="140" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="144" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="113" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="117" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="119" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="148" builtinId="3"/>
-    <cellStyle name="Explanatory Text" xfId="122" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="112" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="108" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="109" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="110" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="111" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="115" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="118" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="114" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="125" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="129" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="133" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="137" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="141" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="145" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="126" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="130" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="134" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="138" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="142" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="146" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="127" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="131" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="135" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="139" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="143" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="147" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="108" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="109" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="110" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="111" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="117" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="118" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="124" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="128" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="132" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="136" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="140" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="144" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="112" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="115" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="113" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="114" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Normal 2 10" xfId="21" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
@@ -2188,15 +2185,18 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="Normal 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Note" xfId="121" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="116" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="121" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="Percent 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="Percent 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Percent 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title" xfId="107" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="116" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="120" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="122" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="107" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="123" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="120" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="119" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Vírgula" xfId="148" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2505,28 +2505,28 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="2" max="3" width="11.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
     <col min="8" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.140625" style="1"/>
+    <col min="16" max="23" width="9.109375" style="1"/>
     <col min="24" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" style="1"/>
+    <col min="26" max="27" width="9.109375" style="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="30" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15" thickBot="1">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="M2" s="120"/>
       <c r="N2" s="120"/>
     </row>
-    <row r="3" spans="1:26" ht="15" thickTop="1">
+    <row r="3" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3" s="70" t="s">
         <v>2</v>
@@ -2556,7 +2556,7 @@
       <c r="M3" s="119"/>
       <c r="N3" s="119"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4" s="70" t="s">
         <v>4</v>
@@ -2573,7 +2573,7 @@
       <c r="M4" s="119"/>
       <c r="N4" s="119"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5"/>
       <c r="C5" s="70" t="s">
@@ -2585,7 +2585,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6"/>
       <c r="C6" s="70" t="s">
@@ -2597,7 +2597,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2613,7 +2613,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2629,7 +2629,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2642,7 +2642,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2662,7 +2662,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2682,7 +2682,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -2691,7 +2691,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -2700,7 +2700,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -2709,15 +2709,15 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="Q19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="15" thickBot="1">
+    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Q20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2881,7 +2881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1">
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="76"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="121">
         <v>1</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="122"/>
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
@@ -3092,7 +3092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="122"/>
       <c r="B26" s="125"/>
       <c r="C26" s="125"/>
@@ -3175,7 +3175,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="122"/>
       <c r="B27" s="125"/>
       <c r="C27" s="125"/>
@@ -3258,7 +3258,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="122"/>
       <c r="B28" s="125"/>
       <c r="C28" s="125"/>
@@ -3341,7 +3341,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="122"/>
       <c r="B29" s="125"/>
       <c r="C29" s="125"/>
@@ -3424,7 +3424,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15" thickBot="1">
+    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="123"/>
       <c r="B30" s="126"/>
       <c r="C30" s="126"/>
@@ -3530,20 +3530,20 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="12"/>
+    <col min="1" max="1" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="12"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.85546875" style="8"/>
-    <col min="15" max="15" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="8"/>
+    <col min="9" max="14" width="8.88671875" style="8"/>
+    <col min="15" max="15" width="10.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="128" t="s">
         <v>22</v>
       </c>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>25</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>1</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1">
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E4" s="45" t="s">
         <v>32</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E5" s="26">
         <f>-3.14159</f>
         <v>-3.1415899999999999</v>
@@ -3637,23 +3637,23 @@
         <v>52.486388108147793</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="128" t="s">
         <v>36</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickTop="1">
+    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26">
         <v>1</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" thickTop="1">
+    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>2</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>4</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>5</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>6</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>7</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>8</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>9</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>10</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>11</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>12</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>13</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>14</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>15</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>16</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>17</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>18</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>19</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>20</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>21</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>22</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>23</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>24</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>25</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>26</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>27</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <v>28</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>29</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>30</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>31</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>32</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>33</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>34</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>35</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>36</v>
       </c>
@@ -4843,18 +4843,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="8"/>
-    <col min="2" max="2" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="8"/>
-    <col min="6" max="6" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>56</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="136"/>
@@ -5020,7 +5020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="AC3" s="98"/>
       <c r="AD3" s="99"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="137">
         <v>1</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="138"/>
       <c r="B5" s="106">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="138"/>
       <c r="B6" s="106">
         <v>3</v>
@@ -5336,7 +5336,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="138"/>
       <c r="B7" s="106">
         <v>4</v>
@@ -5422,7 +5422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="138"/>
       <c r="B8" s="106">
         <v>5</v>
@@ -5508,7 +5508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="138"/>
       <c r="B9" s="106">
         <v>6</v>
@@ -5544,7 +5544,7 @@
       <c r="AC9" s="104"/>
       <c r="AD9" s="105"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="138"/>
       <c r="B10" s="106">
         <v>7</v>
@@ -5580,7 +5580,7 @@
       <c r="AC10" s="104"/>
       <c r="AD10" s="105"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="138"/>
       <c r="B11" s="106">
         <v>8</v>
@@ -5616,7 +5616,7 @@
       <c r="AC11" s="104"/>
       <c r="AD11" s="105"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="138"/>
       <c r="B12" s="106">
         <v>9</v>
@@ -5652,7 +5652,7 @@
       <c r="AC12" s="104"/>
       <c r="AD12" s="105"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="138"/>
       <c r="B13" s="106">
         <v>10</v>
@@ -5688,7 +5688,7 @@
       <c r="AC13" s="104"/>
       <c r="AD13" s="105"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="138"/>
       <c r="B14" s="106">
         <v>11</v>
@@ -5724,7 +5724,7 @@
       <c r="AC14" s="104"/>
       <c r="AD14" s="105"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="139"/>
       <c r="B15" s="110">
         <v>12</v>
@@ -5760,7 +5760,7 @@
       <c r="AC15" s="114"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="137">
         <v>2</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="138"/>
       <c r="B17" s="106">
         <v>2</v>
@@ -5942,7 +5942,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="138"/>
       <c r="B18" s="106">
         <v>3</v>
@@ -6032,7 +6032,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="138"/>
       <c r="B19" s="106">
         <v>4</v>
@@ -6118,7 +6118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="138"/>
       <c r="B20" s="106">
         <v>5</v>
@@ -6204,7 +6204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="138"/>
       <c r="B21" s="106">
         <v>6</v>
@@ -6240,7 +6240,7 @@
       <c r="AC21" s="104"/>
       <c r="AD21" s="105"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="138"/>
       <c r="B22" s="106">
         <v>7</v>
@@ -6276,7 +6276,7 @@
       <c r="AC22" s="104"/>
       <c r="AD22" s="105"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="138"/>
       <c r="B23" s="106">
         <v>8</v>
@@ -6312,7 +6312,7 @@
       <c r="AC23" s="104"/>
       <c r="AD23" s="105"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="138"/>
       <c r="B24" s="106">
         <v>9</v>
@@ -6348,7 +6348,7 @@
       <c r="AC24" s="104"/>
       <c r="AD24" s="105"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="138"/>
       <c r="B25" s="106">
         <v>10</v>
@@ -6384,7 +6384,7 @@
       <c r="AC25" s="104"/>
       <c r="AD25" s="105"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="138"/>
       <c r="B26" s="106">
         <v>11</v>
@@ -6420,7 +6420,7 @@
       <c r="AC26" s="104"/>
       <c r="AD26" s="105"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="139"/>
       <c r="B27" s="110">
         <v>12</v>
@@ -6456,7 +6456,7 @@
       <c r="AC27" s="114"/>
       <c r="AD27" s="115"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -6488,7 +6488,7 @@
       <c r="AC28" s="116"/>
       <c r="AD28" s="116"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
@@ -6520,7 +6520,7 @@
       <c r="AC29" s="116"/>
       <c r="AD29" s="116"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
@@ -6552,7 +6552,7 @@
       <c r="AC30" s="116"/>
       <c r="AD30" s="116"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
@@ -6584,7 +6584,7 @@
       <c r="AC31" s="116"/>
       <c r="AD31" s="116"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
       <c r="C32" s="116"/>
@@ -6616,7 +6616,7 @@
       <c r="AC32" s="116"/>
       <c r="AD32" s="116"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
       <c r="C33" s="116"/>
@@ -6648,7 +6648,7 @@
       <c r="AC33" s="116"/>
       <c r="AD33" s="116"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
       <c r="C34" s="116"/>
@@ -6680,7 +6680,7 @@
       <c r="AC34" s="116"/>
       <c r="AD34" s="116"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
       <c r="C35" s="116"/>
@@ -6712,7 +6712,7 @@
       <c r="AC35" s="116"/>
       <c r="AD35" s="116"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
       <c r="C36" s="116"/>
@@ -6744,7 +6744,7 @@
       <c r="AC36" s="116"/>
       <c r="AD36" s="116"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
       <c r="C37" s="116"/>
@@ -6776,7 +6776,7 @@
       <c r="AC37" s="116"/>
       <c r="AD37" s="116"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
       <c r="C38" s="116"/>
@@ -6808,7 +6808,7 @@
       <c r="AC38" s="116"/>
       <c r="AD38" s="116"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
       <c r="C39" s="116"/>
@@ -6840,7 +6840,7 @@
       <c r="AC39" s="116"/>
       <c r="AD39" s="116"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
       <c r="C40" s="116"/>
@@ -6872,7 +6872,7 @@
       <c r="AC40" s="116"/>
       <c r="AD40" s="116"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
       <c r="C41" s="116"/>
@@ -6904,7 +6904,7 @@
       <c r="AC41" s="116"/>
       <c r="AD41" s="116"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="116"/>
       <c r="B42" s="116"/>
       <c r="C42" s="116"/>
@@ -6936,7 +6936,7 @@
       <c r="AC42" s="116"/>
       <c r="AD42" s="116"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="116"/>
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
@@ -6968,7 +6968,7 @@
       <c r="AC43" s="116"/>
       <c r="AD43" s="116"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="116"/>
       <c r="B44" s="116"/>
       <c r="C44" s="116"/>
@@ -7000,7 +7000,7 @@
       <c r="AC44" s="116"/>
       <c r="AD44" s="116"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="116"/>
       <c r="B45" s="116"/>
       <c r="C45" s="116"/>
@@ -7032,7 +7032,7 @@
       <c r="AC45" s="116"/>
       <c r="AD45" s="116"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="116"/>
       <c r="B46" s="116"/>
       <c r="C46" s="116"/>
@@ -7064,7 +7064,7 @@
       <c r="AC46" s="116"/>
       <c r="AD46" s="116"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="116"/>
       <c r="B47" s="116"/>
       <c r="C47" s="116"/>
@@ -7096,7 +7096,7 @@
       <c r="AC47" s="116"/>
       <c r="AD47" s="116"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="116"/>
       <c r="B48" s="116"/>
       <c r="C48" s="116"/>
@@ -7128,7 +7128,7 @@
       <c r="AC48" s="116"/>
       <c r="AD48" s="116"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="116"/>
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
@@ -7160,7 +7160,7 @@
       <c r="AC49" s="116"/>
       <c r="AD49" s="116"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="116"/>
       <c r="B50" s="116"/>
       <c r="C50" s="116"/>
@@ -7192,7 +7192,7 @@
       <c r="AC50" s="116"/>
       <c r="AD50" s="116"/>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="116"/>
       <c r="B51" s="116"/>
       <c r="C51" s="116"/>
@@ -7224,7 +7224,7 @@
       <c r="AC51" s="116"/>
       <c r="AD51" s="116"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="116"/>
       <c r="B52" s="116"/>
       <c r="C52" s="116"/>
@@ -7256,7 +7256,7 @@
       <c r="AC52" s="116"/>
       <c r="AD52" s="116"/>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="116"/>
       <c r="B53" s="116"/>
       <c r="C53" s="116"/>
@@ -7288,7 +7288,7 @@
       <c r="AC53" s="116"/>
       <c r="AD53" s="116"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="116"/>
       <c r="B54" s="116"/>
       <c r="C54" s="116"/>
@@ -7320,7 +7320,7 @@
       <c r="AC54" s="116"/>
       <c r="AD54" s="116"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="116"/>
       <c r="B55" s="116"/>
       <c r="C55" s="116"/>
@@ -7352,7 +7352,7 @@
       <c r="AC55" s="116"/>
       <c r="AD55" s="116"/>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="116"/>
       <c r="B56" s="116"/>
       <c r="C56" s="116"/>
@@ -7384,7 +7384,7 @@
       <c r="AC56" s="116"/>
       <c r="AD56" s="116"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="116"/>
       <c r="B57" s="116"/>
       <c r="C57" s="116"/>
@@ -7416,7 +7416,7 @@
       <c r="AC57" s="116"/>
       <c r="AD57" s="116"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="116"/>
       <c r="B58" s="116"/>
       <c r="C58" s="116"/>
@@ -7448,7 +7448,7 @@
       <c r="AC58" s="116"/>
       <c r="AD58" s="116"/>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="116"/>
       <c r="B59" s="116"/>
       <c r="C59" s="116"/>
@@ -7480,7 +7480,7 @@
       <c r="AC59" s="116"/>
       <c r="AD59" s="116"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="116"/>
       <c r="B60" s="116"/>
       <c r="C60" s="116"/>
@@ -7512,7 +7512,7 @@
       <c r="AC60" s="116"/>
       <c r="AD60" s="116"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="116"/>
       <c r="B61" s="116"/>
       <c r="C61" s="116"/>
@@ -7544,7 +7544,7 @@
       <c r="AC61" s="116"/>
       <c r="AD61" s="116"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="116"/>
       <c r="B62" s="116"/>
       <c r="C62" s="116"/>
@@ -7576,7 +7576,7 @@
       <c r="AC62" s="116"/>
       <c r="AD62" s="116"/>
     </row>
-    <row r="63" spans="1:30">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="116"/>
       <c r="B63" s="116"/>
       <c r="C63" s="116"/>
@@ -7608,7 +7608,7 @@
       <c r="AC63" s="116"/>
       <c r="AD63" s="116"/>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="116"/>
       <c r="B64" s="116"/>
       <c r="C64" s="116"/>
@@ -7652,26 +7652,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:AE87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="30" width="12.140625" style="8" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="30" width="12.109375" style="8" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="125" t="s">
         <v>71</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -7837,7 +7837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>5.6577999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B9" si="0">B4+1</f>
@@ -8089,7 +8089,7 @@
         <v>2.2631200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -8205,7 +8205,7 @@
         <v>0.56578000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -8321,7 +8321,7 @@
         <v>0.56578000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <v>7</v>
@@ -8596,7 +8596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <v>8</v>
@@ -8683,7 +8683,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
@@ -8857,7 +8857,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -8891,7 +8891,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -8925,7 +8925,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="140">
         <v>2</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>0.91646240000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B21" si="5">B16+1</f>
@@ -9133,7 +9133,7 @@
         <v>0.36658496000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="5"/>
@@ -9249,7 +9249,7 @@
         <v>9.1646240000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="5"/>
@@ -9365,7 +9365,7 @@
         <v>9.1646240000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="5"/>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="5"/>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <v>7</v>
@@ -9640,7 +9640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <v>8</v>
@@ -9727,7 +9727,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <v>9</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
@@ -9901,7 +9901,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -9935,7 +9935,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -9969,7 +9969,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="140">
         <v>3</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>1.2219498</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B33" si="32">B28+1</f>
@@ -10177,7 +10177,7 @@
         <v>0.48877992000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="32"/>
@@ -10293,7 +10293,7 @@
         <v>0.12219498000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="32"/>
@@ -10409,7 +10409,7 @@
         <v>0.12219498000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="32"/>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="32"/>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <v>7</v>
@@ -10684,7 +10684,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <v>8</v>
@@ -10771,7 +10771,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <v>9</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
@@ -10945,7 +10945,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -10979,7 +10979,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -11013,7 +11013,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="140">
         <v>4</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>0.36871999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B45" si="59">B40+1</f>
@@ -11221,7 +11221,7 @@
         <v>0.14748800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="59"/>
@@ -11337,7 +11337,7 @@
         <v>3.6872000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="59"/>
@@ -11453,7 +11453,7 @@
         <v>3.6872000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="59"/>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="59"/>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <v>7</v>
@@ -11728,7 +11728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <v>8</v>
@@ -11815,7 +11815,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <v>9</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
@@ -11989,7 +11989,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -12023,7 +12023,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1">
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -12057,7 +12057,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="140">
         <v>5</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>0.46155600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B57" si="86">B52+1</f>
@@ -12265,7 +12265,7 @@
         <v>0.18462240000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="86"/>
@@ -12381,7 +12381,7 @@
         <v>4.6155600000000005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="86"/>
@@ -12497,7 +12497,7 @@
         <v>4.6155600000000005E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="86"/>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="86"/>
@@ -12681,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <v>7</v>
@@ -12772,7 +12772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <v>8</v>
@@ -12859,7 +12859,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <v>9</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
@@ -13033,7 +13033,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
@@ -13067,7 +13067,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1">
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
@@ -13101,2099 +13101,9 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:30">
-      <c r="A64" s="140">
-        <v>6</v>
-      </c>
-      <c r="B64" s="87">
-        <v>1</v>
-      </c>
-      <c r="C64" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="50">
-        <v>1</v>
-      </c>
-      <c r="E64" s="87">
-        <v>1</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64">
-        <v>0.47963999999999996</v>
-      </c>
-      <c r="H64">
-        <v>0.44842560000000004</v>
-      </c>
-      <c r="I64">
-        <v>0.43043999999999999</v>
-      </c>
-      <c r="J64">
-        <v>0.42713279999999998</v>
-      </c>
-      <c r="K64">
-        <v>0.43722480000000002</v>
-      </c>
-      <c r="L64">
-        <v>0.46110479999999998</v>
-      </c>
-      <c r="M64">
-        <v>0.5310648</v>
-      </c>
-      <c r="N64">
-        <v>0.68536319999999995</v>
-      </c>
-      <c r="O64">
-        <v>0.90946799999999994</v>
-      </c>
-      <c r="P64">
-        <v>1.0549655999999998</v>
-      </c>
-      <c r="Q64">
-        <v>1.09782</v>
-      </c>
-      <c r="R64">
-        <v>1.1222064</v>
-      </c>
-      <c r="S64">
-        <v>1.0255079999999999</v>
-      </c>
-      <c r="T64">
-        <v>1.0134719999999999</v>
-      </c>
-      <c r="U64">
-        <v>1.03908</v>
-      </c>
-      <c r="V64">
-        <v>1.0103063999999999</v>
-      </c>
-      <c r="W64">
-        <v>0.99252239999999992</v>
-      </c>
-      <c r="X64">
-        <v>0.97180800000000001</v>
-      </c>
-      <c r="Y64">
-        <v>0.90361439999999993</v>
-      </c>
-      <c r="Z64">
-        <v>0.82025519999999996</v>
-      </c>
-      <c r="AA64">
-        <v>0.75434639999999997</v>
-      </c>
-      <c r="AB64">
-        <v>0.69007439999999998</v>
-      </c>
-      <c r="AC64">
-        <v>0.62532480000000001</v>
-      </c>
-      <c r="AD64">
-        <v>0.5538672</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
-      <c r="A65" s="141"/>
-      <c r="B65" s="13">
-        <f t="shared" ref="B65:B69" si="113">B64+1</f>
-        <v>2</v>
-      </c>
-      <c r="C65" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="13">
-        <f>E64+1</f>
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="92">
-        <f>G64*0.4</f>
-        <v>0.191856</v>
-      </c>
-      <c r="H65">
-        <f t="shared" ref="H65:AD65" si="114">H64*0.4</f>
-        <v>0.17937024000000001</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="114"/>
-        <v>0.172176</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="114"/>
-        <v>0.17085312</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="114"/>
-        <v>0.17488992000000003</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="114"/>
-        <v>0.18444192000000001</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="114"/>
-        <v>0.21242592000000002</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="114"/>
-        <v>0.27414527999999999</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="114"/>
-        <v>0.36378719999999998</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="114"/>
-        <v>0.42198623999999996</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="114"/>
-        <v>0.43912800000000002</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="114"/>
-        <v>0.44888256000000004</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="114"/>
-        <v>0.41020319999999999</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="114"/>
-        <v>0.40538879999999999</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="114"/>
-        <v>0.415632</v>
-      </c>
-      <c r="V65">
-        <f t="shared" si="114"/>
-        <v>0.40412256000000002</v>
-      </c>
-      <c r="W65">
-        <f t="shared" si="114"/>
-        <v>0.39700895999999997</v>
-      </c>
-      <c r="X65">
-        <f t="shared" si="114"/>
-        <v>0.38872320000000005</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="114"/>
-        <v>0.36144576</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="114"/>
-        <v>0.32810208000000002</v>
-      </c>
-      <c r="AA65">
-        <f t="shared" si="114"/>
-        <v>0.30173855999999999</v>
-      </c>
-      <c r="AB65">
-        <f t="shared" si="114"/>
-        <v>0.27602976000000001</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="114"/>
-        <v>0.25012992000000001</v>
-      </c>
-      <c r="AD65" s="21">
-        <f t="shared" si="114"/>
-        <v>0.22154688</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
-      <c r="A66" s="141"/>
-      <c r="B66" s="13">
-        <f t="shared" si="113"/>
-        <v>3</v>
-      </c>
-      <c r="C66" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="51">
-        <v>1</v>
-      </c>
-      <c r="E66" s="13">
-        <f t="shared" ref="E66:E73" si="115">E65+1</f>
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="92">
-        <f>G64*0.1</f>
-        <v>4.7964E-2</v>
-      </c>
-      <c r="H66">
-        <f t="shared" ref="H66:AD66" si="116">H64*0.1</f>
-        <v>4.4842560000000004E-2</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="116"/>
-        <v>4.3043999999999999E-2</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="116"/>
-        <v>4.2713279999999999E-2</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="116"/>
-        <v>4.3722480000000008E-2</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="116"/>
-        <v>4.6110480000000002E-2</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="116"/>
-        <v>5.3106480000000005E-2</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="116"/>
-        <v>6.8536319999999998E-2</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="116"/>
-        <v>9.0946799999999994E-2</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="116"/>
-        <v>0.10549655999999999</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="116"/>
-        <v>0.109782</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="116"/>
-        <v>0.11222064000000001</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="116"/>
-        <v>0.1025508</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="116"/>
-        <v>0.1013472</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="116"/>
-        <v>0.103908</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="116"/>
-        <v>0.10103064</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="116"/>
-        <v>9.9252239999999992E-2</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="116"/>
-        <v>9.7180800000000012E-2</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="116"/>
-        <v>9.0361440000000001E-2</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="116"/>
-        <v>8.2025520000000005E-2</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="116"/>
-        <v>7.5434639999999997E-2</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="116"/>
-        <v>6.9007440000000003E-2</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="116"/>
-        <v>6.2532480000000001E-2</v>
-      </c>
-      <c r="AD66" s="21">
-        <f t="shared" si="116"/>
-        <v>5.538672E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
-      <c r="A67" s="141"/>
-      <c r="B67" s="13">
-        <f t="shared" si="113"/>
-        <v>4</v>
-      </c>
-      <c r="C67" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="51">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13">
-        <f t="shared" si="115"/>
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="92">
-        <f>G64*0.1</f>
-        <v>4.7964E-2</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:AD67" si="117">H64*0.1</f>
-        <v>4.4842560000000004E-2</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="117"/>
-        <v>4.3043999999999999E-2</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="117"/>
-        <v>4.2713279999999999E-2</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="117"/>
-        <v>4.3722480000000008E-2</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="117"/>
-        <v>4.6110480000000002E-2</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="117"/>
-        <v>5.3106480000000005E-2</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="117"/>
-        <v>6.8536319999999998E-2</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="117"/>
-        <v>9.0946799999999994E-2</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="117"/>
-        <v>0.10549655999999999</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" si="117"/>
-        <v>0.109782</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="117"/>
-        <v>0.11222064000000001</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="117"/>
-        <v>0.1025508</v>
-      </c>
-      <c r="T67">
-        <f t="shared" si="117"/>
-        <v>0.1013472</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="117"/>
-        <v>0.103908</v>
-      </c>
-      <c r="V67">
-        <f t="shared" si="117"/>
-        <v>0.10103064</v>
-      </c>
-      <c r="W67">
-        <f t="shared" si="117"/>
-        <v>9.9252239999999992E-2</v>
-      </c>
-      <c r="X67">
-        <f t="shared" si="117"/>
-        <v>9.7180800000000012E-2</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" si="117"/>
-        <v>9.0361440000000001E-2</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" si="117"/>
-        <v>8.2025520000000005E-2</v>
-      </c>
-      <c r="AA67">
-        <f t="shared" si="117"/>
-        <v>7.5434639999999997E-2</v>
-      </c>
-      <c r="AB67">
-        <f t="shared" si="117"/>
-        <v>6.9007440000000003E-2</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" si="117"/>
-        <v>6.2532480000000001E-2</v>
-      </c>
-      <c r="AD67" s="21">
-        <f t="shared" si="117"/>
-        <v>5.538672E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
-      <c r="A68" s="141"/>
-      <c r="B68" s="13">
-        <f t="shared" si="113"/>
-        <v>5</v>
-      </c>
-      <c r="C68" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="51">
-        <v>1</v>
-      </c>
-      <c r="E68" s="13">
-        <f t="shared" si="115"/>
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <v>0</v>
-      </c>
-      <c r="U68">
-        <v>0</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
-      <c r="A69" s="141"/>
-      <c r="B69" s="13">
-        <f t="shared" si="113"/>
-        <v>6</v>
-      </c>
-      <c r="C69" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="51">
-        <v>30</v>
-      </c>
-      <c r="E69" s="13">
-        <f t="shared" si="115"/>
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
-      <c r="A70" s="141"/>
-      <c r="B70" s="13">
-        <v>7</v>
-      </c>
-      <c r="C70" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="E70" s="13">
-        <f t="shared" si="115"/>
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70">
-        <v>0.5</v>
-      </c>
-      <c r="H70">
-        <v>0.5</v>
-      </c>
-      <c r="I70">
-        <v>0.5</v>
-      </c>
-      <c r="J70">
-        <v>0.5</v>
-      </c>
-      <c r="K70">
-        <v>0.5</v>
-      </c>
-      <c r="L70">
-        <v>0.5</v>
-      </c>
-      <c r="M70">
-        <v>0.5</v>
-      </c>
-      <c r="N70">
-        <v>0.5</v>
-      </c>
-      <c r="O70">
-        <v>0.5</v>
-      </c>
-      <c r="P70">
-        <v>0.5</v>
-      </c>
-      <c r="Q70">
-        <v>0.5</v>
-      </c>
-      <c r="R70">
-        <v>0.5</v>
-      </c>
-      <c r="S70">
-        <v>0.5</v>
-      </c>
-      <c r="T70">
-        <v>0.5</v>
-      </c>
-      <c r="U70">
-        <v>0.5</v>
-      </c>
-      <c r="V70">
-        <v>0.5</v>
-      </c>
-      <c r="W70">
-        <v>0.5</v>
-      </c>
-      <c r="X70">
-        <v>0.5</v>
-      </c>
-      <c r="Y70">
-        <v>0.5</v>
-      </c>
-      <c r="Z70">
-        <v>0.5</v>
-      </c>
-      <c r="AA70">
-        <v>0.5</v>
-      </c>
-      <c r="AB70">
-        <v>0.5</v>
-      </c>
-      <c r="AC70">
-        <v>0.5</v>
-      </c>
-      <c r="AD70" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
-      <c r="A71" s="141"/>
-      <c r="B71" s="13">
-        <v>8</v>
-      </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="13">
-        <f t="shared" si="115"/>
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71">
-        <v>0.6</v>
-      </c>
-      <c r="H71">
-        <v>0.6</v>
-      </c>
-      <c r="I71">
-        <v>0.6</v>
-      </c>
-      <c r="J71">
-        <v>0.6</v>
-      </c>
-      <c r="K71">
-        <v>0.6</v>
-      </c>
-      <c r="L71">
-        <v>0.6</v>
-      </c>
-      <c r="M71">
-        <v>0.6</v>
-      </c>
-      <c r="N71">
-        <v>0.6</v>
-      </c>
-      <c r="O71">
-        <v>0.6</v>
-      </c>
-      <c r="P71">
-        <v>0.6</v>
-      </c>
-      <c r="Q71">
-        <v>0.6</v>
-      </c>
-      <c r="R71">
-        <v>0.6</v>
-      </c>
-      <c r="S71">
-        <v>0.6</v>
-      </c>
-      <c r="T71">
-        <v>0.6</v>
-      </c>
-      <c r="U71">
-        <v>0.6</v>
-      </c>
-      <c r="V71">
-        <v>0.6</v>
-      </c>
-      <c r="W71">
-        <v>0.6</v>
-      </c>
-      <c r="X71">
-        <v>0.6</v>
-      </c>
-      <c r="Y71">
-        <v>0.6</v>
-      </c>
-      <c r="Z71">
-        <v>0.6</v>
-      </c>
-      <c r="AA71">
-        <v>0.6</v>
-      </c>
-      <c r="AB71">
-        <v>0.6</v>
-      </c>
-      <c r="AC71">
-        <v>0.6</v>
-      </c>
-      <c r="AD71" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
-      <c r="A72" s="141"/>
-      <c r="B72" s="13">
-        <v>9</v>
-      </c>
-      <c r="C72" s="96"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="13">
-        <f t="shared" si="115"/>
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <v>0</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
-      <c r="A73" s="141"/>
-      <c r="B73" s="13">
-        <v>10</v>
-      </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="13">
-        <f t="shared" si="115"/>
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73">
-        <v>4.5</v>
-      </c>
-      <c r="H73">
-        <v>4.5</v>
-      </c>
-      <c r="I73">
-        <v>4.5</v>
-      </c>
-      <c r="J73">
-        <v>4.5</v>
-      </c>
-      <c r="K73">
-        <v>4.5</v>
-      </c>
-      <c r="L73">
-        <v>4.5</v>
-      </c>
-      <c r="M73">
-        <v>4.5</v>
-      </c>
-      <c r="N73">
-        <v>4.5</v>
-      </c>
-      <c r="O73">
-        <v>4.5</v>
-      </c>
-      <c r="P73">
-        <v>4.5</v>
-      </c>
-      <c r="Q73">
-        <v>4.5</v>
-      </c>
-      <c r="R73">
-        <v>4.5</v>
-      </c>
-      <c r="S73">
-        <v>4.5</v>
-      </c>
-      <c r="T73">
-        <v>4.5</v>
-      </c>
-      <c r="U73">
-        <v>4.5</v>
-      </c>
-      <c r="V73">
-        <v>4.5</v>
-      </c>
-      <c r="W73">
-        <v>4.5</v>
-      </c>
-      <c r="X73">
-        <v>4.5</v>
-      </c>
-      <c r="Y73">
-        <v>4.5</v>
-      </c>
-      <c r="Z73">
-        <v>4.5</v>
-      </c>
-      <c r="AA73">
-        <v>4.5</v>
-      </c>
-      <c r="AB73">
-        <v>4.5</v>
-      </c>
-      <c r="AC73">
-        <v>4.5</v>
-      </c>
-      <c r="AD73" s="21">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
-      <c r="A74" s="141"/>
-      <c r="B74" s="13">
-        <v>11</v>
-      </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="66"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74" s="21"/>
-    </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1">
-      <c r="A75" s="142"/>
-      <c r="B75" s="88">
-        <v>12</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="22"/>
-    </row>
-    <row r="76" spans="1:30">
-      <c r="A76" s="140">
-        <v>7</v>
-      </c>
-      <c r="B76" s="87">
-        <v>1</v>
-      </c>
-      <c r="C76" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="50">
-        <v>1</v>
-      </c>
-      <c r="E76" s="87">
-        <v>1</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76">
-        <v>0.43167599999999995</v>
-      </c>
-      <c r="H76">
-        <v>0.40358304000000006</v>
-      </c>
-      <c r="I76">
-        <v>0.38739600000000002</v>
-      </c>
-      <c r="J76">
-        <v>0.38441952000000001</v>
-      </c>
-      <c r="K76">
-        <v>0.39350232000000002</v>
-      </c>
-      <c r="L76">
-        <v>0.41499431999999997</v>
-      </c>
-      <c r="M76">
-        <v>0.47795831999999999</v>
-      </c>
-      <c r="N76">
-        <v>0.61682687999999997</v>
-      </c>
-      <c r="O76">
-        <v>0.81852119999999995</v>
-      </c>
-      <c r="P76">
-        <v>0.94946903999999988</v>
-      </c>
-      <c r="Q76">
-        <v>0.98803800000000008</v>
-      </c>
-      <c r="R76">
-        <v>1.0099857600000002</v>
-      </c>
-      <c r="S76">
-        <v>0.92295719999999992</v>
-      </c>
-      <c r="T76">
-        <v>0.91212479999999996</v>
-      </c>
-      <c r="U76">
-        <v>0.935172</v>
-      </c>
-      <c r="V76">
-        <v>0.90927575999999999</v>
-      </c>
-      <c r="W76">
-        <v>0.89327015999999992</v>
-      </c>
-      <c r="X76">
-        <v>0.87462720000000005</v>
-      </c>
-      <c r="Y76">
-        <v>0.81325295999999991</v>
-      </c>
-      <c r="Z76">
-        <v>0.73822968</v>
-      </c>
-      <c r="AA76">
-        <v>0.67891175999999998</v>
-      </c>
-      <c r="AB76">
-        <v>0.62106695999999995</v>
-      </c>
-      <c r="AC76">
-        <v>0.56279232000000001</v>
-      </c>
-      <c r="AD76">
-        <v>0.49848048</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
-      <c r="A77" s="141"/>
-      <c r="B77" s="13">
-        <f t="shared" ref="B77:B81" si="118">B76+1</f>
-        <v>2</v>
-      </c>
-      <c r="C77" s="96" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="13">
-        <f>E76+1</f>
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>75</v>
-      </c>
-      <c r="G77" s="92">
-        <f>G76*0.4</f>
-        <v>0.1726704</v>
-      </c>
-      <c r="H77">
-        <f t="shared" ref="H77:AD77" si="119">H76*0.4</f>
-        <v>0.16143321600000005</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="119"/>
-        <v>0.15495840000000002</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="119"/>
-        <v>0.15376780800000001</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="119"/>
-        <v>0.15740092800000002</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="119"/>
-        <v>0.16599772800000001</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="119"/>
-        <v>0.19118332800000001</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="119"/>
-        <v>0.246730752</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="119"/>
-        <v>0.32740848</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="119"/>
-        <v>0.37978761599999999</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="119"/>
-        <v>0.39521520000000004</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="119"/>
-        <v>0.40399430400000008</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="119"/>
-        <v>0.36918287999999999</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="119"/>
-        <v>0.36484991999999999</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="119"/>
-        <v>0.37406880000000003</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="119"/>
-        <v>0.36371030400000004</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="119"/>
-        <v>0.35730806399999998</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="119"/>
-        <v>0.34985088000000003</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="119"/>
-        <v>0.32530118399999997</v>
-      </c>
-      <c r="Z77">
-        <f t="shared" si="119"/>
-        <v>0.29529187200000001</v>
-      </c>
-      <c r="AA77">
-        <f t="shared" si="119"/>
-        <v>0.27156470399999999</v>
-      </c>
-      <c r="AB77">
-        <f t="shared" si="119"/>
-        <v>0.24842678399999998</v>
-      </c>
-      <c r="AC77">
-        <f t="shared" si="119"/>
-        <v>0.22511692800000002</v>
-      </c>
-      <c r="AD77" s="21">
-        <f t="shared" si="119"/>
-        <v>0.19939219200000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
-      <c r="A78" s="141"/>
-      <c r="B78" s="13">
-        <f t="shared" si="118"/>
-        <v>3</v>
-      </c>
-      <c r="C78" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="51">
-        <v>1</v>
-      </c>
-      <c r="E78" s="13">
-        <f t="shared" ref="E78:E85" si="120">E77+1</f>
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="92">
-        <f>G76*0.1</f>
-        <v>4.31676E-2</v>
-      </c>
-      <c r="H78">
-        <f t="shared" ref="H78:AD78" si="121">H76*0.1</f>
-        <v>4.0358304000000012E-2</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="121"/>
-        <v>3.8739600000000006E-2</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="121"/>
-        <v>3.8441952000000001E-2</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="121"/>
-        <v>3.9350232000000006E-2</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="121"/>
-        <v>4.1499432000000003E-2</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="121"/>
-        <v>4.7795832000000003E-2</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="121"/>
-        <v>6.1682687999999999E-2</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="121"/>
-        <v>8.185212E-2</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="121"/>
-        <v>9.4946903999999999E-2</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="121"/>
-        <v>9.8803800000000011E-2</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="121"/>
-        <v>0.10099857600000002</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="121"/>
-        <v>9.2295719999999998E-2</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="121"/>
-        <v>9.1212479999999999E-2</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="121"/>
-        <v>9.3517200000000009E-2</v>
-      </c>
-      <c r="V78">
-        <f t="shared" si="121"/>
-        <v>9.092757600000001E-2</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="121"/>
-        <v>8.9327015999999995E-2</v>
-      </c>
-      <c r="X78">
-        <f t="shared" si="121"/>
-        <v>8.7462720000000008E-2</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="121"/>
-        <v>8.1325295999999991E-2</v>
-      </c>
-      <c r="Z78">
-        <f t="shared" si="121"/>
-        <v>7.3822968000000003E-2</v>
-      </c>
-      <c r="AA78">
-        <f t="shared" si="121"/>
-        <v>6.7891175999999998E-2</v>
-      </c>
-      <c r="AB78">
-        <f t="shared" si="121"/>
-        <v>6.2106695999999996E-2</v>
-      </c>
-      <c r="AC78">
-        <f t="shared" si="121"/>
-        <v>5.6279232000000005E-2</v>
-      </c>
-      <c r="AD78" s="21">
-        <f t="shared" si="121"/>
-        <v>4.9848048000000006E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
-      <c r="A79" s="141"/>
-      <c r="B79" s="13">
-        <f t="shared" si="118"/>
-        <v>4</v>
-      </c>
-      <c r="C79" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="D79" s="51">
-        <v>1</v>
-      </c>
-      <c r="E79" s="13">
-        <f t="shared" si="120"/>
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="92">
-        <f>G76*0.1</f>
-        <v>4.31676E-2</v>
-      </c>
-      <c r="H79">
-        <f t="shared" ref="H79:AD79" si="122">H76*0.1</f>
-        <v>4.0358304000000012E-2</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="122"/>
-        <v>3.8739600000000006E-2</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="122"/>
-        <v>3.8441952000000001E-2</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="122"/>
-        <v>3.9350232000000006E-2</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="122"/>
-        <v>4.1499432000000003E-2</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="122"/>
-        <v>4.7795832000000003E-2</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="122"/>
-        <v>6.1682687999999999E-2</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="122"/>
-        <v>8.185212E-2</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="122"/>
-        <v>9.4946903999999999E-2</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="122"/>
-        <v>9.8803800000000011E-2</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="122"/>
-        <v>0.10099857600000002</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="122"/>
-        <v>9.2295719999999998E-2</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="122"/>
-        <v>9.1212479999999999E-2</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="122"/>
-        <v>9.3517200000000009E-2</v>
-      </c>
-      <c r="V79">
-        <f t="shared" si="122"/>
-        <v>9.092757600000001E-2</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="122"/>
-        <v>8.9327015999999995E-2</v>
-      </c>
-      <c r="X79">
-        <f t="shared" si="122"/>
-        <v>8.7462720000000008E-2</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" si="122"/>
-        <v>8.1325295999999991E-2</v>
-      </c>
-      <c r="Z79">
-        <f t="shared" si="122"/>
-        <v>7.3822968000000003E-2</v>
-      </c>
-      <c r="AA79">
-        <f t="shared" si="122"/>
-        <v>6.7891175999999998E-2</v>
-      </c>
-      <c r="AB79">
-        <f t="shared" si="122"/>
-        <v>6.2106695999999996E-2</v>
-      </c>
-      <c r="AC79">
-        <f t="shared" si="122"/>
-        <v>5.6279232000000005E-2</v>
-      </c>
-      <c r="AD79" s="21">
-        <f t="shared" si="122"/>
-        <v>4.9848048000000006E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
-      <c r="A80" s="141"/>
-      <c r="B80" s="13">
-        <f t="shared" si="118"/>
-        <v>5</v>
-      </c>
-      <c r="C80" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="51">
-        <v>1</v>
-      </c>
-      <c r="E80" s="13">
-        <f t="shared" si="120"/>
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30">
-      <c r="A81" s="141"/>
-      <c r="B81" s="13">
-        <f t="shared" si="118"/>
-        <v>6</v>
-      </c>
-      <c r="C81" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="D81" s="51">
-        <v>30</v>
-      </c>
-      <c r="E81" s="13">
-        <f t="shared" si="120"/>
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30">
-      <c r="A82" s="141"/>
-      <c r="B82" s="13">
-        <v>7</v>
-      </c>
-      <c r="C82" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" s="51">
-        <v>0.3</v>
-      </c>
-      <c r="E82" s="13">
-        <f t="shared" si="120"/>
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82">
-        <v>0.5</v>
-      </c>
-      <c r="H82">
-        <v>0.5</v>
-      </c>
-      <c r="I82">
-        <v>0.5</v>
-      </c>
-      <c r="J82">
-        <v>0.5</v>
-      </c>
-      <c r="K82">
-        <v>0.5</v>
-      </c>
-      <c r="L82">
-        <v>0.5</v>
-      </c>
-      <c r="M82">
-        <v>0.5</v>
-      </c>
-      <c r="N82">
-        <v>0.5</v>
-      </c>
-      <c r="O82">
-        <v>0.5</v>
-      </c>
-      <c r="P82">
-        <v>0.5</v>
-      </c>
-      <c r="Q82">
-        <v>0.5</v>
-      </c>
-      <c r="R82">
-        <v>0.5</v>
-      </c>
-      <c r="S82">
-        <v>0.5</v>
-      </c>
-      <c r="T82">
-        <v>0.5</v>
-      </c>
-      <c r="U82">
-        <v>0.5</v>
-      </c>
-      <c r="V82">
-        <v>0.5</v>
-      </c>
-      <c r="W82">
-        <v>0.5</v>
-      </c>
-      <c r="X82">
-        <v>0.5</v>
-      </c>
-      <c r="Y82">
-        <v>0.5</v>
-      </c>
-      <c r="Z82">
-        <v>0.5</v>
-      </c>
-      <c r="AA82">
-        <v>0.5</v>
-      </c>
-      <c r="AB82">
-        <v>0.5</v>
-      </c>
-      <c r="AC82">
-        <v>0.5</v>
-      </c>
-      <c r="AD82" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30">
-      <c r="A83" s="141"/>
-      <c r="B83" s="13">
-        <v>8</v>
-      </c>
-      <c r="C83" s="96"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="13">
-        <f t="shared" si="120"/>
-        <v>8</v>
-      </c>
-      <c r="F83" t="s">
-        <v>85</v>
-      </c>
-      <c r="G83">
-        <v>0.6</v>
-      </c>
-      <c r="H83">
-        <v>0.6</v>
-      </c>
-      <c r="I83">
-        <v>0.6</v>
-      </c>
-      <c r="J83">
-        <v>0.6</v>
-      </c>
-      <c r="K83">
-        <v>0.6</v>
-      </c>
-      <c r="L83">
-        <v>0.6</v>
-      </c>
-      <c r="M83">
-        <v>0.6</v>
-      </c>
-      <c r="N83">
-        <v>0.6</v>
-      </c>
-      <c r="O83">
-        <v>0.6</v>
-      </c>
-      <c r="P83">
-        <v>0.6</v>
-      </c>
-      <c r="Q83">
-        <v>0.6</v>
-      </c>
-      <c r="R83">
-        <v>0.6</v>
-      </c>
-      <c r="S83">
-        <v>0.6</v>
-      </c>
-      <c r="T83">
-        <v>0.6</v>
-      </c>
-      <c r="U83">
-        <v>0.6</v>
-      </c>
-      <c r="V83">
-        <v>0.6</v>
-      </c>
-      <c r="W83">
-        <v>0.6</v>
-      </c>
-      <c r="X83">
-        <v>0.6</v>
-      </c>
-      <c r="Y83">
-        <v>0.6</v>
-      </c>
-      <c r="Z83">
-        <v>0.6</v>
-      </c>
-      <c r="AA83">
-        <v>0.6</v>
-      </c>
-      <c r="AB83">
-        <v>0.6</v>
-      </c>
-      <c r="AC83">
-        <v>0.6</v>
-      </c>
-      <c r="AD83" s="21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
-      <c r="A84" s="141"/>
-      <c r="B84" s="13">
-        <v>9</v>
-      </c>
-      <c r="C84" s="96"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="13">
-        <f t="shared" si="120"/>
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <v>0</v>
-      </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-      <c r="AB84">
-        <v>0</v>
-      </c>
-      <c r="AC84">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30">
-      <c r="A85" s="141"/>
-      <c r="B85" s="13">
-        <v>10</v>
-      </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="13">
-        <f t="shared" si="120"/>
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G85">
-        <v>4.5</v>
-      </c>
-      <c r="H85">
-        <v>4.5</v>
-      </c>
-      <c r="I85">
-        <v>4.5</v>
-      </c>
-      <c r="J85">
-        <v>4.5</v>
-      </c>
-      <c r="K85">
-        <v>4.5</v>
-      </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
-      <c r="M85">
-        <v>4.5</v>
-      </c>
-      <c r="N85">
-        <v>4.5</v>
-      </c>
-      <c r="O85">
-        <v>4.5</v>
-      </c>
-      <c r="P85">
-        <v>4.5</v>
-      </c>
-      <c r="Q85">
-        <v>4.5</v>
-      </c>
-      <c r="R85">
-        <v>4.5</v>
-      </c>
-      <c r="S85">
-        <v>4.5</v>
-      </c>
-      <c r="T85">
-        <v>4.5</v>
-      </c>
-      <c r="U85">
-        <v>4.5</v>
-      </c>
-      <c r="V85">
-        <v>4.5</v>
-      </c>
-      <c r="W85">
-        <v>4.5</v>
-      </c>
-      <c r="X85">
-        <v>4.5</v>
-      </c>
-      <c r="Y85">
-        <v>4.5</v>
-      </c>
-      <c r="Z85">
-        <v>4.5</v>
-      </c>
-      <c r="AA85">
-        <v>4.5</v>
-      </c>
-      <c r="AB85">
-        <v>4.5</v>
-      </c>
-      <c r="AC85">
-        <v>4.5</v>
-      </c>
-      <c r="AD85" s="21">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30">
-      <c r="A86" s="141"/>
-      <c r="B86" s="13">
-        <v>11</v>
-      </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="66"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86" s="21"/>
-    </row>
-    <row r="87" spans="1:30" ht="15" thickBot="1">
-      <c r="A87" s="142"/>
-      <c r="B87" s="88">
-        <v>12</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="11"/>
-      <c r="AC87" s="11"/>
-      <c r="AD87" s="22"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A76:A87"/>
+  <mergeCells count="6">
     <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A64:A75"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A16:A27"/>
@@ -15207,28 +13117,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AD87"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E2"/>
+    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:AE87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" customWidth="1"/>
-    <col min="8" max="24" width="9.140625" style="8"/>
-    <col min="25" max="25" width="7.85546875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="8" customWidth="1"/>
+    <col min="8" max="24" width="9.109375" style="8"/>
+    <col min="25" max="25" width="7.88671875" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="131" t="s">
         <v>89</v>
       </c>
@@ -15312,7 +13222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="136"/>
@@ -15394,7 +13304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
@@ -15438,7 +13348,7 @@
       <c r="AC3" s="55"/>
       <c r="AD3" s="56"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -15530,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B12" si="0">B4+1</f>
@@ -15622,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -15714,7 +13624,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -15806,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -15898,7 +13808,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -15990,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -16082,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -16174,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -16216,7 +14126,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
@@ -16253,7 +14163,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -16290,7 +14200,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -16327,7 +14237,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="140">
         <v>2</v>
       </c>
@@ -16419,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B24" si="2">B16+1</f>
@@ -16511,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="2"/>
@@ -16603,7 +14513,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="2"/>
@@ -16695,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="2"/>
@@ -16787,7 +14697,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="2"/>
@@ -16879,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
@@ -16971,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
@@ -17063,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
@@ -17105,7 +15015,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
@@ -17142,7 +15052,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -17179,7 +15089,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -17216,7 +15126,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="140">
         <v>3</v>
       </c>
@@ -17308,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B36" si="4">B28+1</f>
@@ -17400,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="4"/>
@@ -17492,7 +15402,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="4"/>
@@ -17584,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="4"/>
@@ -17676,7 +15586,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="4"/>
@@ -17768,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="4"/>
@@ -17860,7 +15770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="4"/>
@@ -17952,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="4"/>
@@ -17994,7 +15904,7 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
@@ -18031,7 +15941,7 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -18068,7 +15978,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -18105,7 +16015,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="140">
         <v>4</v>
       </c>
@@ -18197,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B48" si="6">B40+1</f>
@@ -18289,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="6"/>
@@ -18381,7 +16291,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="6"/>
@@ -18473,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="6"/>
@@ -18565,7 +16475,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="6"/>
@@ -18657,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="6"/>
@@ -18749,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="6"/>
@@ -18841,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="6"/>
@@ -18883,7 +16793,7 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
@@ -18920,7 +16830,7 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -18957,7 +16867,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1">
+    <row r="51" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -18994,7 +16904,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="140">
         <v>5</v>
       </c>
@@ -19086,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B60" si="8">B52+1</f>
@@ -19178,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="8"/>
@@ -19270,7 +17180,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="8"/>
@@ -19362,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="8"/>
@@ -19454,7 +17364,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="8"/>
@@ -19546,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="8"/>
@@ -19638,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="8"/>
@@ -19730,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="8"/>
@@ -19772,7 +17682,7 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
@@ -19809,7 +17719,7 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
@@ -19846,7 +17756,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1">
+    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
@@ -19883,1789 +17793,729 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:30">
-      <c r="A64" s="140">
-        <v>6</v>
-      </c>
-      <c r="B64" s="87">
-        <v>1</v>
-      </c>
-      <c r="C64" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="50">
-        <v>3</v>
-      </c>
-      <c r="E64" s="87">
-        <v>1</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <v>0</v>
-      </c>
-      <c r="I64" s="10">
-        <v>0</v>
-      </c>
-      <c r="J64" s="10">
-        <v>0</v>
-      </c>
-      <c r="K64" s="10">
-        <v>0</v>
-      </c>
-      <c r="L64" s="10">
-        <v>2.8534000000000002</v>
-      </c>
-      <c r="M64" s="10">
-        <v>6.7202000000000002</v>
-      </c>
-      <c r="N64" s="10">
-        <v>11.3691</v>
-      </c>
-      <c r="O64" s="10">
-        <v>14.994199999999999</v>
-      </c>
-      <c r="P64" s="10">
-        <v>17.3462</v>
-      </c>
-      <c r="Q64" s="10">
-        <v>18</v>
-      </c>
-      <c r="R64" s="10">
-        <v>17.569400000000002</v>
-      </c>
-      <c r="S64" s="10">
-        <v>17.069400000000002</v>
-      </c>
-      <c r="T64" s="10">
-        <v>14.7416</v>
-      </c>
-      <c r="U64" s="10">
-        <v>14.7416</v>
-      </c>
-      <c r="V64" s="10">
-        <v>11.1454</v>
-      </c>
-      <c r="W64" s="10">
-        <v>5.6985891669999997</v>
-      </c>
-      <c r="X64" s="10">
-        <v>2.3881140150000002</v>
-      </c>
-      <c r="Y64" s="10">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="Z64" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
-      <c r="A65" s="141"/>
-      <c r="B65" s="13">
-        <f t="shared" ref="B65:B72" si="10">B64+1</f>
-        <v>2</v>
-      </c>
-      <c r="C65" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="51">
-        <v>2</v>
-      </c>
-      <c r="E65" s="13">
-        <f t="shared" ref="E65:E74" si="11">E64+1</f>
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
-      <c r="A66" s="141"/>
-      <c r="B66" s="13">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="C66" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="51">
-        <v>1</v>
-      </c>
-      <c r="E66" s="13">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="F66" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66">
-        <v>0.08</v>
-      </c>
-      <c r="H66">
-        <v>0.08</v>
-      </c>
-      <c r="I66">
-        <v>0.08</v>
-      </c>
-      <c r="J66">
-        <v>0.08</v>
-      </c>
-      <c r="K66">
-        <v>0.08</v>
-      </c>
-      <c r="L66">
-        <v>0.08</v>
-      </c>
-      <c r="M66">
-        <v>0.08</v>
-      </c>
-      <c r="N66">
-        <v>0.08</v>
-      </c>
-      <c r="O66">
-        <v>0.08</v>
-      </c>
-      <c r="P66">
-        <v>0.08</v>
-      </c>
-      <c r="Q66">
-        <v>0.08</v>
-      </c>
-      <c r="R66">
-        <v>0.08</v>
-      </c>
-      <c r="S66">
-        <v>0.08</v>
-      </c>
-      <c r="T66">
-        <v>0.08</v>
-      </c>
-      <c r="U66">
-        <v>0.08</v>
-      </c>
-      <c r="V66">
-        <v>0.08</v>
-      </c>
-      <c r="W66">
-        <v>0.08</v>
-      </c>
-      <c r="X66">
-        <v>0.08</v>
-      </c>
-      <c r="Y66">
-        <v>0.08</v>
-      </c>
-      <c r="Z66">
-        <v>0.08</v>
-      </c>
-      <c r="AA66">
-        <v>0.08</v>
-      </c>
-      <c r="AB66">
-        <v>0.08</v>
-      </c>
-      <c r="AC66">
-        <v>0.08</v>
-      </c>
-      <c r="AD66" s="21">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
-      <c r="A67" s="141"/>
-      <c r="B67" s="13">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="C67" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="51">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="F67" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <v>0</v>
-      </c>
-      <c r="U67">
-        <v>0</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
-      <c r="A68" s="141"/>
-      <c r="B68" s="13">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="C68" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="51">
-        <v>2</v>
-      </c>
-      <c r="E68" s="13">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G68">
-        <v>4.5</v>
-      </c>
-      <c r="H68">
-        <v>4.5</v>
-      </c>
-      <c r="I68">
-        <v>4.5</v>
-      </c>
-      <c r="J68">
-        <v>4.5</v>
-      </c>
-      <c r="K68">
-        <v>4.5</v>
-      </c>
-      <c r="L68">
-        <v>4.5</v>
-      </c>
-      <c r="M68">
-        <v>4.5</v>
-      </c>
-      <c r="N68">
-        <v>4.5</v>
-      </c>
-      <c r="O68">
-        <v>4.5</v>
-      </c>
-      <c r="P68">
-        <v>4.5</v>
-      </c>
-      <c r="Q68">
-        <v>4.5</v>
-      </c>
-      <c r="R68">
-        <v>4.5</v>
-      </c>
-      <c r="S68">
-        <v>4.5</v>
-      </c>
-      <c r="T68">
-        <v>4.5</v>
-      </c>
-      <c r="U68">
-        <v>4.5</v>
-      </c>
-      <c r="V68">
-        <v>4.5</v>
-      </c>
-      <c r="W68">
-        <v>4.5</v>
-      </c>
-      <c r="X68">
-        <v>4.5</v>
-      </c>
-      <c r="Y68">
-        <v>4.5</v>
-      </c>
-      <c r="Z68">
-        <v>4.5</v>
-      </c>
-      <c r="AA68">
-        <v>4.5</v>
-      </c>
-      <c r="AB68">
-        <v>4.5</v>
-      </c>
-      <c r="AC68">
-        <v>4.5</v>
-      </c>
-      <c r="AD68" s="21">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
-      <c r="A69" s="141"/>
-      <c r="B69" s="13">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="C69" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="51">
-        <v>18</v>
-      </c>
-      <c r="E69" s="13">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <v>0</v>
-      </c>
-      <c r="U69">
-        <v>0</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
-      <c r="A70" s="141"/>
-      <c r="B70" s="13">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="C70" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="51">
-        <v>0</v>
-      </c>
-      <c r="E70" s="13">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="F70" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
-      <c r="A71" s="141"/>
-      <c r="B71" s="13">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="C71" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" s="51">
-        <v>10</v>
-      </c>
-      <c r="E71" s="13">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="F71" t="s">
-        <v>102</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
-      <c r="A72" s="141"/>
-      <c r="B72" s="13">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72" s="51">
-        <v>0</v>
-      </c>
-      <c r="E72" s="13">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="F72" s="31"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72" s="21"/>
-    </row>
-    <row r="73" spans="1:30">
-      <c r="A73" s="141"/>
-      <c r="B73" s="13">
-        <v>10</v>
-      </c>
-      <c r="C73" s="96"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="13">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73" s="21"/>
-    </row>
-    <row r="74" spans="1:30">
-      <c r="A74" s="141"/>
-      <c r="B74" s="13">
-        <v>11</v>
-      </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="13">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74" s="21"/>
-    </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1">
-      <c r="A75" s="142"/>
-      <c r="B75" s="88">
-        <v>12</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="52"/>
-      <c r="E75" s="88">
-        <f>E74+1</f>
-        <v>12</v>
-      </c>
-      <c r="F75" s="117"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
-      <c r="X75" s="11"/>
-      <c r="Y75" s="11"/>
-      <c r="Z75" s="11"/>
-      <c r="AA75" s="11"/>
-      <c r="AB75" s="11"/>
-      <c r="AC75" s="11"/>
-      <c r="AD75" s="22"/>
-    </row>
-    <row r="76" spans="1:30">
-      <c r="A76" s="140">
-        <v>7</v>
-      </c>
-      <c r="B76" s="87">
-        <v>1</v>
-      </c>
-      <c r="C76" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="50">
-        <v>3</v>
-      </c>
-      <c r="E76" s="87">
-        <v>1</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G76" s="10">
-        <v>0</v>
-      </c>
-      <c r="H76" s="10">
-        <v>0</v>
-      </c>
-      <c r="I76" s="10">
-        <v>0</v>
-      </c>
-      <c r="J76" s="10">
-        <v>0</v>
-      </c>
-      <c r="K76" s="10">
-        <v>0</v>
-      </c>
-      <c r="L76" s="10">
-        <v>0.15183401599999999</v>
-      </c>
-      <c r="M76" s="10">
-        <v>0.43233729500000001</v>
-      </c>
-      <c r="N76" s="10">
-        <v>1.0182185859999999</v>
-      </c>
-      <c r="O76" s="10">
-        <v>1.722591038</v>
-      </c>
-      <c r="P76" s="10">
-        <v>2.2718544199999999</v>
-      </c>
-      <c r="Q76" s="10">
-        <v>2.6282141540000001</v>
-      </c>
-      <c r="R76" s="10">
-        <v>2.824647578</v>
-      </c>
-      <c r="S76" s="10">
-        <v>2.812336261</v>
-      </c>
-      <c r="T76" s="10">
-        <v>2.586271075</v>
-      </c>
-      <c r="U76" s="10">
-        <v>2.2335710080000002</v>
-      </c>
-      <c r="V76" s="10">
-        <v>1.688694197</v>
-      </c>
-      <c r="W76" s="10">
-        <v>0.94976486100000002</v>
-      </c>
-      <c r="X76" s="10">
-        <v>0.39801900299999998</v>
-      </c>
-      <c r="Y76" s="10">
-        <v>0.140295533</v>
-      </c>
-      <c r="Z76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
-      <c r="A77" s="141"/>
-      <c r="B77" s="13">
-        <f t="shared" ref="B77:B84" si="12">B76+1</f>
-        <v>2</v>
-      </c>
-      <c r="C77" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="D77" s="51">
-        <v>2</v>
-      </c>
-      <c r="E77" s="13">
-        <f t="shared" ref="E77:E86" si="13">E76+1</f>
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
-      <c r="A78" s="141"/>
-      <c r="B78" s="13">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C78" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="51">
-        <v>1</v>
-      </c>
-      <c r="E78" s="13">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="F78" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78">
-        <v>0.08</v>
-      </c>
-      <c r="H78">
-        <v>0.08</v>
-      </c>
-      <c r="I78">
-        <v>0.08</v>
-      </c>
-      <c r="J78">
-        <v>0.08</v>
-      </c>
-      <c r="K78">
-        <v>0.08</v>
-      </c>
-      <c r="L78">
-        <v>0.08</v>
-      </c>
-      <c r="M78">
-        <v>0.08</v>
-      </c>
-      <c r="N78">
-        <v>0.08</v>
-      </c>
-      <c r="O78">
-        <v>0.08</v>
-      </c>
-      <c r="P78">
-        <v>0.08</v>
-      </c>
-      <c r="Q78">
-        <v>0.08</v>
-      </c>
-      <c r="R78">
-        <v>0.08</v>
-      </c>
-      <c r="S78">
-        <v>0.08</v>
-      </c>
-      <c r="T78">
-        <v>0.08</v>
-      </c>
-      <c r="U78">
-        <v>0.08</v>
-      </c>
-      <c r="V78">
-        <v>0.08</v>
-      </c>
-      <c r="W78">
-        <v>0.08</v>
-      </c>
-      <c r="X78">
-        <v>0.08</v>
-      </c>
-      <c r="Y78">
-        <v>0.08</v>
-      </c>
-      <c r="Z78">
-        <v>0.08</v>
-      </c>
-      <c r="AA78">
-        <v>0.08</v>
-      </c>
-      <c r="AB78">
-        <v>0.08</v>
-      </c>
-      <c r="AC78">
-        <v>0.08</v>
-      </c>
-      <c r="AD78" s="21">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
-      <c r="A79" s="141"/>
-      <c r="B79" s="13">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="C79" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="51">
-        <v>1</v>
-      </c>
-      <c r="E79" s="13">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
-      <c r="A80" s="141"/>
-      <c r="B80" s="13">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="C80" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="51">
-        <v>1</v>
-      </c>
-      <c r="E80" s="13">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80">
-        <v>4.5</v>
-      </c>
-      <c r="H80">
-        <v>4.5</v>
-      </c>
-      <c r="I80">
-        <v>4.5</v>
-      </c>
-      <c r="J80">
-        <v>4.5</v>
-      </c>
-      <c r="K80">
-        <v>4.5</v>
-      </c>
-      <c r="L80">
-        <v>4.5</v>
-      </c>
-      <c r="M80">
-        <v>4.5</v>
-      </c>
-      <c r="N80">
-        <v>4.5</v>
-      </c>
-      <c r="O80">
-        <v>4.5</v>
-      </c>
-      <c r="P80">
-        <v>4.5</v>
-      </c>
-      <c r="Q80">
-        <v>4.5</v>
-      </c>
-      <c r="R80">
-        <v>4.5</v>
-      </c>
-      <c r="S80">
-        <v>4.5</v>
-      </c>
-      <c r="T80">
-        <v>4.5</v>
-      </c>
-      <c r="U80">
-        <v>4.5</v>
-      </c>
-      <c r="V80">
-        <v>4.5</v>
-      </c>
-      <c r="W80">
-        <v>4.5</v>
-      </c>
-      <c r="X80">
-        <v>4.5</v>
-      </c>
-      <c r="Y80">
-        <v>4.5</v>
-      </c>
-      <c r="Z80">
-        <v>4.5</v>
-      </c>
-      <c r="AA80">
-        <v>4.5</v>
-      </c>
-      <c r="AB80">
-        <v>4.5</v>
-      </c>
-      <c r="AC80">
-        <v>4.5</v>
-      </c>
-      <c r="AD80" s="21">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30">
-      <c r="A81" s="141"/>
-      <c r="B81" s="13">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="C81" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="51">
-        <v>3</v>
-      </c>
-      <c r="E81" s="13">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="F81" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <v>0</v>
-      </c>
-      <c r="U81">
-        <v>0</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-      <c r="AB81">
-        <v>0</v>
-      </c>
-      <c r="AC81">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30">
-      <c r="A82" s="141"/>
-      <c r="B82" s="13">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="C82" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D82" s="51">
-        <v>0</v>
-      </c>
-      <c r="E82" s="13">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="F82" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <v>0</v>
-      </c>
-      <c r="U82">
-        <v>0</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-      <c r="AB82">
-        <v>0</v>
-      </c>
-      <c r="AC82">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30">
-      <c r="A83" s="141"/>
-      <c r="B83" s="13">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="C83" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="51">
-        <v>1</v>
-      </c>
-      <c r="E83" s="13">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <v>0</v>
-      </c>
-      <c r="U83">
-        <v>0</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
-      <c r="A84" s="141"/>
-      <c r="B84" s="13">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="C84" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" s="51">
-        <v>0</v>
-      </c>
-      <c r="E84" s="13">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="F84" s="31"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-      <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-      <c r="AB84"/>
-      <c r="AC84"/>
-      <c r="AD84" s="21"/>
-    </row>
-    <row r="85" spans="1:30">
-      <c r="A85" s="141"/>
-      <c r="B85" s="13">
-        <v>10</v>
-      </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="13">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="F85" s="31"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
-      <c r="AD85" s="21"/>
-    </row>
-    <row r="86" spans="1:30">
-      <c r="A86" s="141"/>
-      <c r="B86" s="13">
-        <v>11</v>
-      </c>
-      <c r="C86" s="96"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="13">
-        <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="F86" s="31"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="O86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86" s="21"/>
-    </row>
-    <row r="87" spans="1:30" ht="15" thickBot="1">
-      <c r="A87" s="142"/>
-      <c r="B87" s="88">
-        <v>12</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="88">
-        <f>E86+1</f>
-        <v>12</v>
-      </c>
-      <c r="F87" s="117"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="11"/>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
-      <c r="X87" s="11"/>
-      <c r="Y87" s="11"/>
-      <c r="Z87" s="11"/>
-      <c r="AA87" s="11"/>
-      <c r="AB87" s="11"/>
-      <c r="AC87" s="11"/>
-      <c r="AD87" s="22"/>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+      <c r="AB64" s="61"/>
+      <c r="AC64" s="61"/>
+      <c r="AD64" s="61"/>
+      <c r="AE64" s="61"/>
+    </row>
+    <row r="65" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+      <c r="AB65" s="61"/>
+      <c r="AC65" s="61"/>
+      <c r="AD65" s="61"/>
+      <c r="AE65" s="61"/>
+    </row>
+    <row r="66" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+      <c r="AB66" s="61"/>
+      <c r="AC66" s="61"/>
+      <c r="AD66" s="61"/>
+      <c r="AE66" s="61"/>
+    </row>
+    <row r="67" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="61"/>
+    </row>
+    <row r="68" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
+      <c r="AB68" s="61"/>
+      <c r="AC68" s="61"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="61"/>
+    </row>
+    <row r="69" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+      <c r="Z69" s="61"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="61"/>
+      <c r="AC69" s="61"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="61"/>
+    </row>
+    <row r="70" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="61"/>
+      <c r="V70" s="61"/>
+      <c r="W70" s="61"/>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="61"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="61"/>
+      <c r="AC70" s="61"/>
+      <c r="AD70" s="61"/>
+      <c r="AE70" s="61"/>
+    </row>
+    <row r="71" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="61"/>
+      <c r="AC71" s="61"/>
+      <c r="AD71" s="61"/>
+      <c r="AE71" s="61"/>
+    </row>
+    <row r="72" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+    </row>
+    <row r="73" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="61"/>
+      <c r="U73" s="61"/>
+      <c r="V73" s="61"/>
+      <c r="W73" s="61"/>
+      <c r="X73" s="61"/>
+      <c r="Y73" s="61"/>
+      <c r="Z73" s="61"/>
+      <c r="AA73" s="61"/>
+      <c r="AB73" s="61"/>
+      <c r="AC73" s="61"/>
+      <c r="AD73" s="61"/>
+      <c r="AE73" s="61"/>
+    </row>
+    <row r="74" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="61"/>
+      <c r="AC74" s="61"/>
+      <c r="AD74" s="61"/>
+      <c r="AE74" s="61"/>
+    </row>
+    <row r="75" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="61"/>
+      <c r="U75" s="61"/>
+      <c r="V75" s="61"/>
+      <c r="W75" s="61"/>
+      <c r="X75" s="61"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="61"/>
+      <c r="AA75" s="61"/>
+      <c r="AB75" s="61"/>
+      <c r="AC75" s="61"/>
+      <c r="AD75" s="61"/>
+      <c r="AE75" s="61"/>
+    </row>
+    <row r="76" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="61"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
+      <c r="T76" s="61"/>
+      <c r="U76" s="61"/>
+      <c r="V76" s="61"/>
+      <c r="W76" s="61"/>
+      <c r="X76" s="61"/>
+      <c r="Y76" s="61"/>
+      <c r="Z76" s="61"/>
+      <c r="AA76" s="61"/>
+      <c r="AB76" s="61"/>
+      <c r="AC76" s="61"/>
+      <c r="AD76" s="61"/>
+      <c r="AE76" s="61"/>
+    </row>
+    <row r="77" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
+      <c r="N77" s="61"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+      <c r="R77" s="61"/>
+      <c r="S77" s="61"/>
+      <c r="T77" s="61"/>
+      <c r="U77" s="61"/>
+      <c r="V77" s="61"/>
+      <c r="W77" s="61"/>
+      <c r="X77" s="61"/>
+      <c r="Y77" s="61"/>
+      <c r="Z77" s="61"/>
+      <c r="AA77" s="61"/>
+      <c r="AB77" s="61"/>
+      <c r="AC77" s="61"/>
+      <c r="AD77" s="61"/>
+      <c r="AE77" s="61"/>
+    </row>
+    <row r="78" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+      <c r="R78" s="61"/>
+      <c r="S78" s="61"/>
+      <c r="T78" s="61"/>
+      <c r="U78" s="61"/>
+      <c r="V78" s="61"/>
+      <c r="W78" s="61"/>
+      <c r="X78" s="61"/>
+      <c r="Y78" s="61"/>
+      <c r="Z78" s="61"/>
+      <c r="AA78" s="61"/>
+      <c r="AB78" s="61"/>
+      <c r="AC78" s="61"/>
+      <c r="AD78" s="61"/>
+      <c r="AE78" s="61"/>
+    </row>
+    <row r="79" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="61"/>
+      <c r="K79" s="61"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
+      <c r="N79" s="61"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+      <c r="R79" s="61"/>
+      <c r="S79" s="61"/>
+      <c r="T79" s="61"/>
+      <c r="U79" s="61"/>
+      <c r="V79" s="61"/>
+      <c r="W79" s="61"/>
+      <c r="X79" s="61"/>
+      <c r="Y79" s="61"/>
+      <c r="Z79" s="61"/>
+      <c r="AA79" s="61"/>
+      <c r="AB79" s="61"/>
+      <c r="AC79" s="61"/>
+      <c r="AD79" s="61"/>
+      <c r="AE79" s="61"/>
+    </row>
+    <row r="80" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="61"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
+      <c r="N80" s="61"/>
+      <c r="O80" s="61"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="61"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="61"/>
+      <c r="T80" s="61"/>
+      <c r="U80" s="61"/>
+      <c r="V80" s="61"/>
+      <c r="W80" s="61"/>
+      <c r="X80" s="61"/>
+      <c r="Y80" s="61"/>
+      <c r="Z80" s="61"/>
+      <c r="AA80" s="61"/>
+      <c r="AB80" s="61"/>
+      <c r="AC80" s="61"/>
+      <c r="AD80" s="61"/>
+      <c r="AE80" s="61"/>
+    </row>
+    <row r="81" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="61"/>
+      <c r="K81" s="61"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
+      <c r="N81" s="61"/>
+      <c r="O81" s="61"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="61"/>
+      <c r="R81" s="61"/>
+      <c r="S81" s="61"/>
+      <c r="T81" s="61"/>
+      <c r="U81" s="61"/>
+      <c r="V81" s="61"/>
+      <c r="W81" s="61"/>
+      <c r="X81" s="61"/>
+      <c r="Y81" s="61"/>
+      <c r="Z81" s="61"/>
+      <c r="AA81" s="61"/>
+      <c r="AB81" s="61"/>
+      <c r="AC81" s="61"/>
+      <c r="AD81" s="61"/>
+      <c r="AE81" s="61"/>
+    </row>
+    <row r="82" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="61"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="61"/>
+      <c r="O82" s="61"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="61"/>
+      <c r="R82" s="61"/>
+      <c r="S82" s="61"/>
+      <c r="T82" s="61"/>
+      <c r="U82" s="61"/>
+      <c r="V82" s="61"/>
+      <c r="W82" s="61"/>
+      <c r="X82" s="61"/>
+      <c r="Y82" s="61"/>
+      <c r="Z82" s="61"/>
+      <c r="AA82" s="61"/>
+      <c r="AB82" s="61"/>
+      <c r="AC82" s="61"/>
+      <c r="AD82" s="61"/>
+      <c r="AE82" s="61"/>
+    </row>
+    <row r="83" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
+      <c r="N83" s="61"/>
+      <c r="O83" s="61"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="61"/>
+      <c r="R83" s="61"/>
+      <c r="S83" s="61"/>
+      <c r="T83" s="61"/>
+      <c r="U83" s="61"/>
+      <c r="V83" s="61"/>
+      <c r="W83" s="61"/>
+      <c r="X83" s="61"/>
+      <c r="Y83" s="61"/>
+      <c r="Z83" s="61"/>
+      <c r="AA83" s="61"/>
+      <c r="AB83" s="61"/>
+      <c r="AC83" s="61"/>
+      <c r="AD83" s="61"/>
+      <c r="AE83" s="61"/>
+    </row>
+    <row r="84" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
+      <c r="N84" s="61"/>
+      <c r="O84" s="61"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="61"/>
+      <c r="R84" s="61"/>
+      <c r="S84" s="61"/>
+      <c r="T84" s="61"/>
+      <c r="U84" s="61"/>
+      <c r="V84" s="61"/>
+      <c r="W84" s="61"/>
+      <c r="X84" s="61"/>
+      <c r="Y84" s="61"/>
+      <c r="Z84" s="61"/>
+      <c r="AA84" s="61"/>
+      <c r="AB84" s="61"/>
+      <c r="AC84" s="61"/>
+      <c r="AD84" s="61"/>
+      <c r="AE84" s="61"/>
+    </row>
+    <row r="85" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
+      <c r="N85" s="61"/>
+      <c r="O85" s="61"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="61"/>
+      <c r="R85" s="61"/>
+      <c r="S85" s="61"/>
+      <c r="T85" s="61"/>
+      <c r="U85" s="61"/>
+      <c r="V85" s="61"/>
+      <c r="W85" s="61"/>
+      <c r="X85" s="61"/>
+      <c r="Y85" s="61"/>
+      <c r="Z85" s="61"/>
+      <c r="AA85" s="61"/>
+      <c r="AB85" s="61"/>
+      <c r="AC85" s="61"/>
+      <c r="AD85" s="61"/>
+      <c r="AE85" s="61"/>
+    </row>
+    <row r="86" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
+      <c r="N86" s="61"/>
+      <c r="O86" s="61"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="61"/>
+      <c r="R86" s="61"/>
+      <c r="S86" s="61"/>
+      <c r="T86" s="61"/>
+      <c r="U86" s="61"/>
+      <c r="V86" s="61"/>
+      <c r="W86" s="61"/>
+      <c r="X86" s="61"/>
+      <c r="Y86" s="61"/>
+      <c r="Z86" s="61"/>
+      <c r="AA86" s="61"/>
+      <c r="AB86" s="61"/>
+      <c r="AC86" s="61"/>
+      <c r="AD86" s="61"/>
+      <c r="AE86" s="61"/>
+    </row>
+    <row r="87" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61"/>
+      <c r="X87" s="61"/>
+      <c r="Y87" s="61"/>
+      <c r="Z87" s="61"/>
+      <c r="AA87" s="61"/>
+      <c r="AB87" s="61"/>
+      <c r="AC87" s="61"/>
+      <c r="AD87" s="61"/>
+      <c r="AE87" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A52:A63"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="A64:A75"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A16:A27"/>
@@ -21682,27 +18532,27 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="68" customWidth="1"/>
-    <col min="8" max="17" width="9.140625" style="68"/>
-    <col min="18" max="18" width="9.140625" style="68" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="68"/>
-    <col min="22" max="30" width="9.140625" style="68" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="68" customWidth="1"/>
+    <col min="8" max="17" width="9.109375" style="68"/>
+    <col min="18" max="18" width="9.109375" style="68" customWidth="1"/>
+    <col min="19" max="21" width="9.109375" style="68"/>
+    <col min="22" max="30" width="9.109375" style="68" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="125" t="s">
         <v>104</v>
       </c>
@@ -21786,7 +18636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -21868,7 +18718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -21912,7 +18762,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -22004,7 +18854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f>B4+1</f>
@@ -22096,7 +18946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" ref="B6:B15" si="0">B5+1</f>
@@ -22188,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -22280,7 +19130,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -22319,7 +19169,7 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -22358,7 +19208,7 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -22397,7 +19247,7 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -22436,7 +19286,7 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -22475,7 +19325,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
@@ -22514,7 +19364,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <f t="shared" si="0"/>
@@ -22553,7 +19403,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="141"/>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
@@ -22592,7 +19442,7 @@
       <c r="AC15"/>
       <c r="AD15" s="21"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="141"/>
       <c r="B16" s="13">
         <v>13</v>
@@ -22626,7 +19476,7 @@
       <c r="AC16"/>
       <c r="AD16" s="21"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <v>14</v>
@@ -22660,7 +19510,7 @@
       <c r="AC17"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1">
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="142"/>
       <c r="B18" s="88">
         <v>15</v>
@@ -22694,7 +19544,7 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="22"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="140">
         <v>2</v>
       </c>
@@ -22786,7 +19636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f>B19+1</f>
@@ -22878,7 +19728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" ref="B21:B30" si="2">B20+1</f>
@@ -22970,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
@@ -23062,7 +19912,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
@@ -23101,7 +19951,7 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
@@ -23140,7 +19990,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <f t="shared" si="2"/>
@@ -23179,7 +20029,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <f t="shared" si="2"/>
@@ -23218,7 +20068,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="141"/>
       <c r="B27" s="13">
         <f t="shared" si="2"/>
@@ -23257,7 +20107,7 @@
       <c r="AC27"/>
       <c r="AD27" s="21"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="141"/>
       <c r="B28" s="13">
         <f t="shared" si="2"/>
@@ -23296,7 +20146,7 @@
       <c r="AC28"/>
       <c r="AD28" s="21"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" si="2"/>
@@ -23335,7 +20185,7 @@
       <c r="AC29"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
@@ -23374,7 +20224,7 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <v>13</v>
@@ -23408,7 +20258,7 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <v>14</v>
@@ -23442,7 +20292,7 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" ht="15" thickBot="1">
+    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="142"/>
       <c r="B33" s="88">
         <v>15</v>
@@ -23476,7 +20326,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="22"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="140">
         <v>3</v>
       </c>
@@ -23568,7 +20418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f>B34+1</f>
@@ -23660,7 +20510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" ref="B36:B45" si="4">B35+1</f>
@@ -23752,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <f t="shared" si="4"/>
@@ -23844,7 +20694,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <f t="shared" si="4"/>
@@ -23883,7 +20733,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="141"/>
       <c r="B39" s="13">
         <f t="shared" si="4"/>
@@ -23922,7 +20772,7 @@
       <c r="AC39"/>
       <c r="AD39" s="21"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="141"/>
       <c r="B40" s="13">
         <f t="shared" si="4"/>
@@ -23961,7 +20811,7 @@
       <c r="AC40"/>
       <c r="AD40" s="21"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" si="4"/>
@@ -24000,7 +20850,7 @@
       <c r="AC41"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="4"/>
@@ -24039,7 +20889,7 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="4"/>
@@ -24078,7 +20928,7 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="4"/>
@@ -24117,7 +20967,7 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="4"/>
@@ -24156,7 +21006,7 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <v>13</v>
@@ -24190,7 +21040,7 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <v>14</v>
@@ -24224,7 +21074,7 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" ht="15" thickBot="1">
+    <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="142"/>
       <c r="B48" s="88">
         <v>15</v>
@@ -24258,7 +21108,7 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="22"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="140">
         <v>5</v>
       </c>
@@ -24350,7 +21200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <f>B49+1</f>
@@ -24442,7 +21292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="141"/>
       <c r="B51" s="13">
         <f t="shared" ref="B51:B60" si="6">B50+1</f>
@@ -24534,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="141"/>
       <c r="B52" s="13">
         <f t="shared" si="6"/>
@@ -24626,7 +21476,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" si="6"/>
@@ -24665,7 +21515,7 @@
       <c r="AC53"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="6"/>
@@ -24704,7 +21554,7 @@
       <c r="AC54"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="6"/>
@@ -24743,7 +21593,7 @@
       <c r="AC55"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="6"/>
@@ -24782,7 +21632,7 @@
       <c r="AC56"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="6"/>
@@ -24821,7 +21671,7 @@
       <c r="AC57"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="6"/>
@@ -24860,7 +21710,7 @@
       <c r="AC58"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="6"/>
@@ -24899,7 +21749,7 @@
       <c r="AC59"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="6"/>
@@ -24938,7 +21788,7 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>13</v>
@@ -24972,7 +21822,7 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>14</v>
@@ -25006,7 +21856,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1">
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>15</v>
@@ -25057,23 +21907,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98EFC89-2E31-4A70-A48F-E4D762144DE5}">
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80:D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="125" t="s">
         <v>118</v>
       </c>
@@ -25107,7 +21957,7 @@
       <c r="AC1" s="62"/>
       <c r="AD1" s="62"/>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -25145,7 +21995,7 @@
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -25189,7 +22039,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="64"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -25237,7 +22087,7 @@
       <c r="AC4"/>
       <c r="AD4" s="20"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B12" si="0">B4+1</f>
@@ -25285,7 +22135,7 @@
       <c r="AC5"/>
       <c r="AD5" s="21"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -25333,7 +22183,7 @@
       <c r="AC6"/>
       <c r="AD6" s="21"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -25381,7 +22231,7 @@
       <c r="AC7"/>
       <c r="AD7" s="21"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -25428,7 +22278,7 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -25475,7 +22325,7 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -25522,7 +22372,7 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -25569,7 +22419,7 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -25616,7 +22466,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
@@ -25662,7 +22512,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -25700,7 +22550,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -25738,7 +22588,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="140">
         <v>2</v>
       </c>
@@ -25786,7 +22636,7 @@
       <c r="AC16"/>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B24" si="1">B16+1</f>
@@ -25834,7 +22684,7 @@
       <c r="AC17"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
@@ -25882,7 +22732,7 @@
       <c r="AC18"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
@@ -25930,7 +22780,7 @@
       <c r="AC19"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
@@ -25977,7 +22827,7 @@
       <c r="AC20"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
@@ -26024,7 +22874,7 @@
       <c r="AC21"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
@@ -26071,7 +22921,7 @@
       <c r="AC22"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
@@ -26118,7 +22968,7 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
@@ -26165,7 +23015,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
@@ -26211,7 +23061,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -26249,7 +23099,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -26287,7 +23137,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="140">
         <v>3</v>
       </c>
@@ -26335,7 +23185,7 @@
       <c r="AC28"/>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B36" si="2">B28+1</f>
@@ -26383,7 +23233,7 @@
       <c r="AC29"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
@@ -26431,7 +23281,7 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
@@ -26479,7 +23329,7 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
@@ -26526,7 +23376,7 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
@@ -26573,7 +23423,7 @@
       <c r="AC33"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="2"/>
@@ -26620,7 +23470,7 @@
       <c r="AC34"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="2"/>
@@ -26667,7 +23517,7 @@
       <c r="AC35"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="2"/>
@@ -26714,7 +23564,7 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
@@ -26760,7 +23610,7 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -26798,7 +23648,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -26836,7 +23686,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="140">
         <v>4</v>
       </c>
@@ -26884,7 +23734,7 @@
       <c r="AC40"/>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B48" si="3">B40+1</f>
@@ -26932,7 +23782,7 @@
       <c r="AC41"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="3"/>
@@ -26980,7 +23830,7 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="3"/>
@@ -27028,7 +23878,7 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="3"/>
@@ -27075,7 +23925,7 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="3"/>
@@ -27122,7 +23972,7 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="3"/>
@@ -27169,7 +24019,7 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="3"/>
@@ -27216,7 +24066,7 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="3"/>
@@ -27263,7 +24113,7 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
@@ -27309,7 +24159,7 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -27347,7 +24197,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1">
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -27385,7 +24235,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="140">
         <v>5</v>
       </c>
@@ -27433,7 +24283,7 @@
       <c r="AC52"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B60" si="4">B52+1</f>
@@ -27481,7 +24331,7 @@
       <c r="AC53"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="4"/>
@@ -27529,7 +24379,7 @@
       <c r="AC54"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="4"/>
@@ -27577,7 +24427,7 @@
       <c r="AC55"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="4"/>
@@ -27624,7 +24474,7 @@
       <c r="AC56"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="4"/>
@@ -27671,7 +24521,7 @@
       <c r="AC57"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="4"/>
@@ -27680,7 +24530,9 @@
       <c r="C58" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="51">
+        <v>0</v>
+      </c>
       <c r="E58" s="13">
         <v>7</v>
       </c>
@@ -27716,7 +24568,7 @@
       <c r="AC58"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="4"/>
@@ -27763,7 +24615,7 @@
       <c r="AC59"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="4"/>
@@ -27772,7 +24624,9 @@
       <c r="C60" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="51">
+        <v>1</v>
+      </c>
       <c r="E60" s="13">
         <v>9</v>
       </c>
@@ -27808,7 +24662,7 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
@@ -27854,7 +24708,7 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
@@ -27892,7 +24746,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1">
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
@@ -27930,7 +24784,7 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:30">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="140">
         <v>6</v>
       </c>
@@ -27978,7 +24832,7 @@
       <c r="AC64"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="141"/>
       <c r="B65" s="13">
         <f t="shared" ref="B65:B72" si="5">B64+1</f>
@@ -28026,7 +24880,7 @@
       <c r="AC65"/>
       <c r="AD65" s="21"/>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="141"/>
       <c r="B66" s="13">
         <f t="shared" si="5"/>
@@ -28074,7 +24928,7 @@
       <c r="AC66"/>
       <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="141"/>
       <c r="B67" s="13">
         <f t="shared" si="5"/>
@@ -28122,7 +24976,7 @@
       <c r="AC67"/>
       <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="141"/>
       <c r="B68" s="13">
         <f t="shared" si="5"/>
@@ -28169,7 +25023,7 @@
       <c r="AC68"/>
       <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="141"/>
       <c r="B69" s="13">
         <f t="shared" si="5"/>
@@ -28216,7 +25070,7 @@
       <c r="AC69"/>
       <c r="AD69" s="21"/>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="141"/>
       <c r="B70" s="13">
         <f t="shared" si="5"/>
@@ -28225,7 +25079,9 @@
       <c r="C70" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="51"/>
+      <c r="D70" s="51">
+        <v>0</v>
+      </c>
       <c r="E70" s="13">
         <v>7</v>
       </c>
@@ -28261,7 +25117,7 @@
       <c r="AC70"/>
       <c r="AD70" s="21"/>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="141"/>
       <c r="B71" s="13">
         <f t="shared" si="5"/>
@@ -28308,7 +25164,7 @@
       <c r="AC71"/>
       <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="141"/>
       <c r="B72" s="13">
         <f t="shared" si="5"/>
@@ -28317,7 +25173,9 @@
       <c r="C72" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="51">
+        <v>1</v>
+      </c>
       <c r="E72" s="13">
         <v>9</v>
       </c>
@@ -28353,7 +25211,7 @@
       <c r="AC72"/>
       <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="141"/>
       <c r="B73" s="13">
         <v>10</v>
@@ -28399,7 +25257,7 @@
       <c r="AC73"/>
       <c r="AD73" s="21"/>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="141"/>
       <c r="B74" s="13">
         <v>11</v>
@@ -28437,7 +25295,7 @@
       <c r="AC74"/>
       <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1">
+    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="142"/>
       <c r="B75" s="88">
         <v>12</v>
@@ -28475,7 +25333,7 @@
       <c r="AC75" s="11"/>
       <c r="AD75" s="22"/>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="140">
         <v>7</v>
       </c>
@@ -28523,7 +25381,7 @@
       <c r="AC76"/>
       <c r="AD76" s="20"/>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="141"/>
       <c r="B77" s="13">
         <f t="shared" ref="B77:B84" si="6">B76+1</f>
@@ -28571,7 +25429,7 @@
       <c r="AC77"/>
       <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="141"/>
       <c r="B78" s="13">
         <f t="shared" si="6"/>
@@ -28619,7 +25477,7 @@
       <c r="AC78"/>
       <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="141"/>
       <c r="B79" s="13">
         <f t="shared" si="6"/>
@@ -28667,7 +25525,7 @@
       <c r="AC79"/>
       <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="141"/>
       <c r="B80" s="13">
         <f t="shared" si="6"/>
@@ -28714,7 +25572,7 @@
       <c r="AC80"/>
       <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="1:30">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="141"/>
       <c r="B81" s="13">
         <f t="shared" si="6"/>
@@ -28761,7 +25619,7 @@
       <c r="AC81"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="1:30">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="141"/>
       <c r="B82" s="13">
         <f t="shared" si="6"/>
@@ -28770,7 +25628,9 @@
       <c r="C82" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="51"/>
+      <c r="D82" s="51">
+        <v>0</v>
+      </c>
       <c r="E82" s="13">
         <v>7</v>
       </c>
@@ -28806,7 +25666,7 @@
       <c r="AC82"/>
       <c r="AD82" s="21"/>
     </row>
-    <row r="83" spans="1:30">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="141"/>
       <c r="B83" s="13">
         <f t="shared" si="6"/>
@@ -28853,7 +25713,7 @@
       <c r="AC83"/>
       <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="1:30">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="141"/>
       <c r="B84" s="13">
         <f t="shared" si="6"/>
@@ -28862,7 +25722,9 @@
       <c r="C84" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="D84" s="51"/>
+      <c r="D84" s="51">
+        <v>1</v>
+      </c>
       <c r="E84" s="13">
         <v>9</v>
       </c>
@@ -28898,7 +25760,7 @@
       <c r="AC84"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="141"/>
       <c r="B85" s="13">
         <v>10</v>
@@ -28944,7 +25806,7 @@
       <c r="AC85"/>
       <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="141"/>
       <c r="B86" s="13">
         <v>11</v>
@@ -28982,7 +25844,7 @@
       <c r="AC86"/>
       <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="1:30" ht="15" thickBot="1">
+    <row r="87" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="142"/>
       <c r="B87" s="88">
         <v>12</v>
@@ -29040,23 +25902,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED44E71-8461-49EC-BDE2-25D71C22BD0F}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="68" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="125" t="s">
         <v>143</v>
       </c>
@@ -29140,7 +26002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -29222,7 +26084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -29266,7 +26128,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -29358,7 +26220,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B13" si="0">B4+1</f>
@@ -29450,7 +26312,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -29489,7 +26351,7 @@
       <c r="AC6"/>
       <c r="AD6" s="21"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -29528,7 +26390,7 @@
       <c r="AC7"/>
       <c r="AD7" s="21"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -29567,7 +26429,7 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -29606,7 +26468,7 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -29645,7 +26507,7 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -29684,7 +26546,7 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -29723,7 +26585,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
@@ -29762,7 +26624,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -29800,7 +26662,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -29834,7 +26696,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="140">
         <v>4</v>
       </c>
@@ -29926,7 +26788,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B25" si="1">B16+1</f>
@@ -30018,7 +26880,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
@@ -30057,7 +26919,7 @@
       <c r="AC18"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
@@ -30096,7 +26958,7 @@
       <c r="AC19"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
@@ -30135,7 +26997,7 @@
       <c r="AC20"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
@@ -30174,7 +27036,7 @@
       <c r="AC21"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
@@ -30213,7 +27075,7 @@
       <c r="AC22"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
@@ -30252,7 +27114,7 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
@@ -30291,7 +27153,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
@@ -30330,7 +27192,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -30368,7 +27230,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -30402,7 +27264,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="140">
         <v>6</v>
       </c>
@@ -30494,7 +27356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B37" si="2">B28+1</f>
@@ -30586,7 +27448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
@@ -30625,7 +27487,7 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
@@ -30664,7 +27526,7 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" ht="19.5" customHeight="1">
+    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
@@ -30703,7 +27565,7 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
@@ -30742,7 +27604,7 @@
       <c r="AC33"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="2"/>
@@ -30781,7 +27643,7 @@
       <c r="AC34"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="2"/>
@@ -30820,7 +27682,7 @@
       <c r="AC35"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="2"/>
@@ -30859,7 +27721,7 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <f t="shared" si="2"/>
@@ -30898,7 +27760,7 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -30936,7 +27798,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -30970,7 +27832,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="140">
         <v>7</v>
       </c>
@@ -31062,7 +27924,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B49" si="3">B40+1</f>
@@ -31154,7 +28016,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="3"/>
@@ -31193,7 +28055,7 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="3"/>
@@ -31232,7 +28094,7 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="3"/>
@@ -31271,7 +28133,7 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="3"/>
@@ -31310,7 +28172,7 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="3"/>
@@ -31349,7 +28211,7 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="3"/>
@@ -31388,7 +28250,7 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="3"/>
@@ -31427,7 +28289,7 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <f t="shared" si="3"/>
@@ -31466,7 +28328,7 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -31504,7 +28366,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1">
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -31558,19 +28420,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1">
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="143" t="s">
         <v>147</v>
       </c>
@@ -31581,7 +28443,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" thickBot="1">
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="144"/>
       <c r="C4" s="83">
         <v>2</v>
@@ -31590,7 +28452,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="145" t="s">
         <v>65</v>
       </c>
@@ -31601,7 +28463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="146"/>
       <c r="C6" s="83">
         <v>2</v>
@@ -31621,15 +28483,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9AF0C12AF32784AA732DC10CF87510A" ma:contentTypeVersion="12" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="704088ab89168f16f5be5ae1239f37bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbae9298-c5c8-4c5d-86f9-781c8fd812a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa1512bd7375e312c8e45d43a3c9a072" ns2:_="">
     <xsd:import namespace="cbae9298-c5c8-4c5d-86f9-781c8fd812a7"/>
@@ -31819,6 +28672,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -31826,13 +28688,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C9FA379-60F3-40CB-BCC9-DB4DA962BF76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD192BC-D6B7-469C-B1A1-CD0BB7E0B557}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cbae9298-c5c8-4c5d-86f9-781c8fd812a7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD192BC-D6B7-469C-B1A1-CD0BB7E0B557}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C9FA379-60F3-40CB-BCC9-DB4DA962BF76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{190C380E-3337-4C81-80E6-9871B5E8C842}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{190C380E-3337-4C81-80E6-9871B5E8C842}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/pyecom_tomas/data/EC_V4_new_UC1.xlsx
+++ b/pyecom_tomas/data/EC_V4_new_UC1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\laris\EV4EU2\task2_5\energy_communities_management\pyecom_tomas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa.sharepoint.com/sites/HEU-EV4EU-Project/Documentos Partilhados/WP2-V2X Management Strategies (DTU)/T2.5/Methods and use case/UCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C257432-7541-43F5-A0FC-71C8545C6D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{972FACF0-0087-431B-84D8-9BB45EFA7203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5098114-0682-4A76-AA49-30A2751FA9CB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Information" sheetId="1" r:id="rId1"/>
@@ -512,13 +512,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;???????\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;???\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;???????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1720,7 +1720,7 @@
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1774,13 +1774,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1900,12 +1900,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="32" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="32" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="32" xfId="148" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2048,40 +2048,43 @@
     </xf>
   </cellXfs>
   <cellStyles count="149">
-    <cellStyle name="20% - Cor1" xfId="125" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="129" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="133" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="137" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="141" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="145" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="126" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="130" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="134" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="138" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="142" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="146" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="127" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="131" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="135" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="139" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="143" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="147" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="108" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="109" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="110" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="111" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="117" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="118" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="124" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="128" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="132" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="136" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="140" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="144" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="112" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="115" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="113" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutro" xfId="114" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="125" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="129" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="133" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="137" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="141" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="145" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="126" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="130" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="134" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="138" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="142" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="146" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="127" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="131" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="135" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="139" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="143" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="147" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="124" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="128" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="132" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="136" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="140" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="144" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="113" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="117" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="119" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="148" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="122" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="112" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="108" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="109" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="110" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="111" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="115" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="118" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="114" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Normal 2 10" xfId="21" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
@@ -2185,18 +2188,15 @@
     <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="Normal 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Nota" xfId="121" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="121" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="116" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="Percent 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="Percent 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
     <cellStyle name="Percent 2 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Saída" xfId="116" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="120" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="122" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="107" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="107" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="123" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="119" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="148" builtinId="3"/>
+    <cellStyle name="Warning Text" xfId="120" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2505,28 +2505,28 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="2" max="3" width="11.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.08984375" style="1"/>
     <col min="8" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="9.109375" style="1"/>
+    <col min="16" max="23" width="9.08984375" style="1"/>
     <col min="24" max="25" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="1"/>
+    <col min="26" max="27" width="9.08984375" style="1"/>
     <col min="28" max="28" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.109375" style="1"/>
+    <col min="30" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="M2" s="120"/>
       <c r="N2" s="120"/>
     </row>
-    <row r="3" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3" s="70" t="s">
         <v>2</v>
@@ -2556,7 +2556,7 @@
       <c r="M3" s="119"/>
       <c r="N3" s="119"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4" s="70" t="s">
         <v>4</v>
@@ -2573,7 +2573,7 @@
       <c r="M4" s="119"/>
       <c r="N4" s="119"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5"/>
       <c r="C5" s="70" t="s">
@@ -2585,7 +2585,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6"/>
       <c r="C6" s="70" t="s">
@@ -2597,7 +2597,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2613,7 +2613,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2629,7 +2629,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2642,7 +2642,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2662,7 +2662,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2682,7 +2682,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -2691,7 +2691,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -2700,7 +2700,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -2709,15 +2709,15 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Q19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -2881,7 +2881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="AB23" s="9"/>
       <c r="AC23" s="76"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" s="121">
         <v>1</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A25" s="122"/>
       <c r="B25" s="125"/>
       <c r="C25" s="125"/>
@@ -3092,7 +3092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" s="122"/>
       <c r="B26" s="125"/>
       <c r="C26" s="125"/>
@@ -3175,7 +3175,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A27" s="122"/>
       <c r="B27" s="125"/>
       <c r="C27" s="125"/>
@@ -3258,7 +3258,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A28" s="122"/>
       <c r="B28" s="125"/>
       <c r="C28" s="125"/>
@@ -3341,7 +3341,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" s="122"/>
       <c r="B29" s="125"/>
       <c r="C29" s="125"/>
@@ -3424,7 +3424,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="123"/>
       <c r="B30" s="126"/>
       <c r="C30" s="126"/>
@@ -3530,20 +3530,20 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="14.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.90625" style="12"/>
     <col min="4" max="4" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="8.88671875" style="8"/>
-    <col min="15" max="15" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="14" width="8.90625" style="8"/>
+    <col min="15" max="15" width="10.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="128" t="s">
         <v>22</v>
       </c>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="I1" s="120"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>25</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="43">
         <v>1</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E4" s="45" t="s">
         <v>32</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="E5" s="26">
         <f>-3.14159</f>
         <v>-3.1415899999999999</v>
@@ -3637,23 +3637,23 @@
         <v>52.486388108147793</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="128" t="s">
         <v>36</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -3715,7 +3715,7 @@
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
         <v>1</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
         <v>2</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="26">
         <v>4</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
         <v>5</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="26">
         <v>6</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="26">
         <v>7</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="26">
         <v>8</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
         <v>9</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="26">
         <v>10</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="26">
         <v>11</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="26">
         <v>12</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="26">
         <v>13</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
         <v>14</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="26">
         <v>15</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="26">
         <v>16</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="26">
         <v>17</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="26">
         <v>18</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="26">
         <v>19</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="26">
         <v>20</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="26">
         <v>21</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="26">
         <v>22</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="26">
         <v>23</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="26">
         <v>24</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="26">
         <v>25</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="26">
         <v>26</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="26">
         <v>27</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="26">
         <v>28</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="26">
         <v>29</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="26">
         <v>30</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="26">
         <v>31</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="26">
         <v>32</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="26">
         <v>33</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="26">
         <v>34</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="26">
         <v>35</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="26">
         <v>36</v>
       </c>
@@ -4840,21 +4840,21 @@
   <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="6" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="8.90625" style="8"/>
+    <col min="2" max="2" width="14.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="8"/>
+    <col min="6" max="6" width="20.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="131" t="s">
         <v>56</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="136"/>
@@ -5020,7 +5020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="AC3" s="98"/>
       <c r="AD3" s="99"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="137">
         <v>1</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="138"/>
       <c r="B5" s="106">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="138"/>
       <c r="B6" s="106">
         <v>3</v>
@@ -5336,7 +5336,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="138"/>
       <c r="B7" s="106">
         <v>4</v>
@@ -5422,7 +5422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="138"/>
       <c r="B8" s="106">
         <v>5</v>
@@ -5508,7 +5508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="138"/>
       <c r="B9" s="106">
         <v>6</v>
@@ -5544,7 +5544,7 @@
       <c r="AC9" s="104"/>
       <c r="AD9" s="105"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="138"/>
       <c r="B10" s="106">
         <v>7</v>
@@ -5580,7 +5580,7 @@
       <c r="AC10" s="104"/>
       <c r="AD10" s="105"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="138"/>
       <c r="B11" s="106">
         <v>8</v>
@@ -5616,7 +5616,7 @@
       <c r="AC11" s="104"/>
       <c r="AD11" s="105"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="138"/>
       <c r="B12" s="106">
         <v>9</v>
@@ -5652,7 +5652,7 @@
       <c r="AC12" s="104"/>
       <c r="AD12" s="105"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="138"/>
       <c r="B13" s="106">
         <v>10</v>
@@ -5688,7 +5688,7 @@
       <c r="AC13" s="104"/>
       <c r="AD13" s="105"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="138"/>
       <c r="B14" s="106">
         <v>11</v>
@@ -5724,7 +5724,7 @@
       <c r="AC14" s="104"/>
       <c r="AD14" s="105"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="139"/>
       <c r="B15" s="110">
         <v>12</v>
@@ -5760,7 +5760,7 @@
       <c r="AC15" s="114"/>
       <c r="AD15" s="115"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="137">
         <v>2</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="138"/>
       <c r="B17" s="106">
         <v>2</v>
@@ -5942,7 +5942,7 @@
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="138"/>
       <c r="B18" s="106">
         <v>3</v>
@@ -6032,7 +6032,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="138"/>
       <c r="B19" s="106">
         <v>4</v>
@@ -6118,7 +6118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="138"/>
       <c r="B20" s="106">
         <v>5</v>
@@ -6204,7 +6204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="138"/>
       <c r="B21" s="106">
         <v>6</v>
@@ -6240,7 +6240,7 @@
       <c r="AC21" s="104"/>
       <c r="AD21" s="105"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="138"/>
       <c r="B22" s="106">
         <v>7</v>
@@ -6276,7 +6276,7 @@
       <c r="AC22" s="104"/>
       <c r="AD22" s="105"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="138"/>
       <c r="B23" s="106">
         <v>8</v>
@@ -6312,7 +6312,7 @@
       <c r="AC23" s="104"/>
       <c r="AD23" s="105"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="138"/>
       <c r="B24" s="106">
         <v>9</v>
@@ -6348,7 +6348,7 @@
       <c r="AC24" s="104"/>
       <c r="AD24" s="105"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="138"/>
       <c r="B25" s="106">
         <v>10</v>
@@ -6384,7 +6384,7 @@
       <c r="AC25" s="104"/>
       <c r="AD25" s="105"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="138"/>
       <c r="B26" s="106">
         <v>11</v>
@@ -6420,7 +6420,7 @@
       <c r="AC26" s="104"/>
       <c r="AD26" s="105"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="139"/>
       <c r="B27" s="110">
         <v>12</v>
@@ -6456,7 +6456,7 @@
       <c r="AC27" s="114"/>
       <c r="AD27" s="115"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="116"/>
       <c r="B28" s="116"/>
       <c r="C28" s="116"/>
@@ -6488,7 +6488,7 @@
       <c r="AC28" s="116"/>
       <c r="AD28" s="116"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="116"/>
       <c r="B29" s="116"/>
       <c r="C29" s="116"/>
@@ -6520,7 +6520,7 @@
       <c r="AC29" s="116"/>
       <c r="AD29" s="116"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="116"/>
       <c r="B30" s="116"/>
       <c r="C30" s="116"/>
@@ -6552,7 +6552,7 @@
       <c r="AC30" s="116"/>
       <c r="AD30" s="116"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="116"/>
       <c r="B31" s="116"/>
       <c r="C31" s="116"/>
@@ -6584,7 +6584,7 @@
       <c r="AC31" s="116"/>
       <c r="AD31" s="116"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="116"/>
       <c r="B32" s="116"/>
       <c r="C32" s="116"/>
@@ -6616,7 +6616,7 @@
       <c r="AC32" s="116"/>
       <c r="AD32" s="116"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="116"/>
       <c r="B33" s="116"/>
       <c r="C33" s="116"/>
@@ -6648,7 +6648,7 @@
       <c r="AC33" s="116"/>
       <c r="AD33" s="116"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="116"/>
       <c r="B34" s="116"/>
       <c r="C34" s="116"/>
@@ -6680,7 +6680,7 @@
       <c r="AC34" s="116"/>
       <c r="AD34" s="116"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="116"/>
       <c r="B35" s="116"/>
       <c r="C35" s="116"/>
@@ -6712,7 +6712,7 @@
       <c r="AC35" s="116"/>
       <c r="AD35" s="116"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="116"/>
       <c r="B36" s="116"/>
       <c r="C36" s="116"/>
@@ -6744,7 +6744,7 @@
       <c r="AC36" s="116"/>
       <c r="AD36" s="116"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="116"/>
       <c r="B37" s="116"/>
       <c r="C37" s="116"/>
@@ -6776,7 +6776,7 @@
       <c r="AC37" s="116"/>
       <c r="AD37" s="116"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="116"/>
       <c r="B38" s="116"/>
       <c r="C38" s="116"/>
@@ -6808,7 +6808,7 @@
       <c r="AC38" s="116"/>
       <c r="AD38" s="116"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="116"/>
       <c r="B39" s="116"/>
       <c r="C39" s="116"/>
@@ -6840,7 +6840,7 @@
       <c r="AC39" s="116"/>
       <c r="AD39" s="116"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="116"/>
       <c r="B40" s="116"/>
       <c r="C40" s="116"/>
@@ -6872,7 +6872,7 @@
       <c r="AC40" s="116"/>
       <c r="AD40" s="116"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="116"/>
       <c r="B41" s="116"/>
       <c r="C41" s="116"/>
@@ -6904,7 +6904,7 @@
       <c r="AC41" s="116"/>
       <c r="AD41" s="116"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="116"/>
       <c r="B42" s="116"/>
       <c r="C42" s="116"/>
@@ -6936,7 +6936,7 @@
       <c r="AC42" s="116"/>
       <c r="AD42" s="116"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="116"/>
       <c r="B43" s="116"/>
       <c r="C43" s="116"/>
@@ -6968,7 +6968,7 @@
       <c r="AC43" s="116"/>
       <c r="AD43" s="116"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="116"/>
       <c r="B44" s="116"/>
       <c r="C44" s="116"/>
@@ -7000,7 +7000,7 @@
       <c r="AC44" s="116"/>
       <c r="AD44" s="116"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="116"/>
       <c r="B45" s="116"/>
       <c r="C45" s="116"/>
@@ -7032,7 +7032,7 @@
       <c r="AC45" s="116"/>
       <c r="AD45" s="116"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="116"/>
       <c r="B46" s="116"/>
       <c r="C46" s="116"/>
@@ -7064,7 +7064,7 @@
       <c r="AC46" s="116"/>
       <c r="AD46" s="116"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="116"/>
       <c r="B47" s="116"/>
       <c r="C47" s="116"/>
@@ -7096,7 +7096,7 @@
       <c r="AC47" s="116"/>
       <c r="AD47" s="116"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="116"/>
       <c r="B48" s="116"/>
       <c r="C48" s="116"/>
@@ -7128,7 +7128,7 @@
       <c r="AC48" s="116"/>
       <c r="AD48" s="116"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="116"/>
       <c r="B49" s="116"/>
       <c r="C49" s="116"/>
@@ -7160,7 +7160,7 @@
       <c r="AC49" s="116"/>
       <c r="AD49" s="116"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="116"/>
       <c r="B50" s="116"/>
       <c r="C50" s="116"/>
@@ -7192,7 +7192,7 @@
       <c r="AC50" s="116"/>
       <c r="AD50" s="116"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="116"/>
       <c r="B51" s="116"/>
       <c r="C51" s="116"/>
@@ -7224,7 +7224,7 @@
       <c r="AC51" s="116"/>
       <c r="AD51" s="116"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="116"/>
       <c r="B52" s="116"/>
       <c r="C52" s="116"/>
@@ -7256,7 +7256,7 @@
       <c r="AC52" s="116"/>
       <c r="AD52" s="116"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="116"/>
       <c r="B53" s="116"/>
       <c r="C53" s="116"/>
@@ -7288,7 +7288,7 @@
       <c r="AC53" s="116"/>
       <c r="AD53" s="116"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="116"/>
       <c r="B54" s="116"/>
       <c r="C54" s="116"/>
@@ -7320,7 +7320,7 @@
       <c r="AC54" s="116"/>
       <c r="AD54" s="116"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="116"/>
       <c r="B55" s="116"/>
       <c r="C55" s="116"/>
@@ -7352,7 +7352,7 @@
       <c r="AC55" s="116"/>
       <c r="AD55" s="116"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="116"/>
       <c r="B56" s="116"/>
       <c r="C56" s="116"/>
@@ -7384,7 +7384,7 @@
       <c r="AC56" s="116"/>
       <c r="AD56" s="116"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="116"/>
       <c r="B57" s="116"/>
       <c r="C57" s="116"/>
@@ -7416,7 +7416,7 @@
       <c r="AC57" s="116"/>
       <c r="AD57" s="116"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="116"/>
       <c r="B58" s="116"/>
       <c r="C58" s="116"/>
@@ -7448,7 +7448,7 @@
       <c r="AC58" s="116"/>
       <c r="AD58" s="116"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="116"/>
       <c r="B59" s="116"/>
       <c r="C59" s="116"/>
@@ -7480,7 +7480,7 @@
       <c r="AC59" s="116"/>
       <c r="AD59" s="116"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="116"/>
       <c r="B60" s="116"/>
       <c r="C60" s="116"/>
@@ -7512,7 +7512,7 @@
       <c r="AC60" s="116"/>
       <c r="AD60" s="116"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="116"/>
       <c r="B61" s="116"/>
       <c r="C61" s="116"/>
@@ -7544,7 +7544,7 @@
       <c r="AC61" s="116"/>
       <c r="AD61" s="116"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="116"/>
       <c r="B62" s="116"/>
       <c r="C62" s="116"/>
@@ -7576,7 +7576,7 @@
       <c r="AC62" s="116"/>
       <c r="AD62" s="116"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="116"/>
       <c r="B63" s="116"/>
       <c r="C63" s="116"/>
@@ -7608,7 +7608,7 @@
       <c r="AC63" s="116"/>
       <c r="AD63" s="116"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="116"/>
       <c r="B64" s="116"/>
       <c r="C64" s="116"/>
@@ -7655,23 +7655,23 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:AE87"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="30" width="12.109375" style="8" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="30" width="12.08984375" style="8" customWidth="1"/>
+    <col min="31" max="16384" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>71</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -7837,7 +7837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>5.6577999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B9" si="0">B4+1</f>
@@ -8089,7 +8089,7 @@
         <v>2.2631200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -8205,7 +8205,7 @@
         <v>0.56578000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -8321,7 +8321,7 @@
         <v>0.56578000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <v>7</v>
@@ -8596,7 +8596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <v>8</v>
@@ -8683,7 +8683,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <v>9</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
@@ -8857,7 +8857,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -8891,7 +8891,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -8925,7 +8925,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="140">
         <v>2</v>
       </c>
@@ -9017,7 +9017,7 @@
         <v>0.91646240000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B21" si="5">B16+1</f>
@@ -9133,7 +9133,7 @@
         <v>0.36658496000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="5"/>
@@ -9249,7 +9249,7 @@
         <v>9.1646240000000004E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="5"/>
@@ -9365,7 +9365,7 @@
         <v>9.1646240000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="5"/>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="5"/>
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <v>7</v>
@@ -9640,7 +9640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <v>8</v>
@@ -9727,7 +9727,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <v>9</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
@@ -9901,7 +9901,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -9935,7 +9935,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -9969,7 +9969,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="140">
         <v>3</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>1.2219498</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B33" si="32">B28+1</f>
@@ -10177,7 +10177,7 @@
         <v>0.48877992000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="32"/>
@@ -10293,7 +10293,7 @@
         <v>0.12219498000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="32"/>
@@ -10409,7 +10409,7 @@
         <v>0.12219498000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="32"/>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="32"/>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <v>7</v>
@@ -10684,7 +10684,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <v>8</v>
@@ -10771,7 +10771,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <v>9</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
@@ -10945,7 +10945,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -10979,7 +10979,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -11013,7 +11013,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="140">
         <v>4</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>0.36871999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B45" si="59">B40+1</f>
@@ -11221,7 +11221,7 @@
         <v>0.14748800000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="59"/>
@@ -11337,7 +11337,7 @@
         <v>3.6872000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="59"/>
@@ -11453,7 +11453,7 @@
         <v>3.6872000000000002E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="59"/>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="59"/>
@@ -11637,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <v>7</v>
@@ -11728,7 +11728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <v>8</v>
@@ -11815,7 +11815,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <v>9</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
@@ -11989,7 +11989,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -12023,7 +12023,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -12057,7 +12057,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="140">
         <v>5</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>0.46155600000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B57" si="86">B52+1</f>
@@ -12265,7 +12265,7 @@
         <v>0.18462240000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="86"/>
@@ -12381,7 +12381,7 @@
         <v>4.6155600000000005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="86"/>
@@ -12497,7 +12497,7 @@
         <v>4.6155600000000005E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="86"/>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="86"/>
@@ -12681,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <v>7</v>
@@ -12772,7 +12772,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <v>8</v>
@@ -12859,7 +12859,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <v>9</v>
@@ -12946,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
@@ -13033,7 +13033,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
@@ -13067,7 +13067,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
@@ -13119,26 +13119,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:AE87"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="8" customWidth="1"/>
-    <col min="8" max="24" width="9.109375" style="8"/>
-    <col min="25" max="25" width="7.88671875" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="10.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="8" customWidth="1"/>
+    <col min="8" max="24" width="9.08984375" style="8"/>
+    <col min="25" max="25" width="7.90625" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="131" t="s">
         <v>89</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="136"/>
@@ -13304,7 +13304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="46" t="s">
         <v>11</v>
       </c>
@@ -13348,7 +13348,7 @@
       <c r="AC3" s="55"/>
       <c r="AD3" s="56"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B12" si="0">B4+1</f>
@@ -13532,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -13624,7 +13624,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -13808,7 +13808,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -13900,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -13992,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -14084,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -14126,7 +14126,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
@@ -14163,7 +14163,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -14200,7 +14200,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -14237,7 +14237,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="140">
         <v>2</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B24" si="2">B16+1</f>
@@ -14421,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="2"/>
@@ -14513,7 +14513,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="2"/>
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="2"/>
@@ -14697,7 +14697,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="2"/>
@@ -14789,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
@@ -15015,7 +15015,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
@@ -15052,7 +15052,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -15089,7 +15089,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -15126,7 +15126,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="140">
         <v>3</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B36" si="4">B28+1</f>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="4"/>
@@ -15402,7 +15402,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="4"/>
@@ -15494,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="4"/>
@@ -15586,7 +15586,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="4"/>
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="4"/>
@@ -15770,7 +15770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="4"/>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="4"/>
@@ -15904,7 +15904,7 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
@@ -15941,7 +15941,7 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -15978,7 +15978,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -16015,7 +16015,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="140">
         <v>4</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B48" si="6">B40+1</f>
@@ -16199,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="6"/>
@@ -16291,7 +16291,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="6"/>
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="6"/>
@@ -16475,7 +16475,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="6"/>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="6"/>
@@ -16659,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="6"/>
@@ -16751,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="6"/>
@@ -16793,7 +16793,7 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
@@ -16830,7 +16830,7 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -16867,7 +16867,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -16904,7 +16904,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" s="140">
         <v>5</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B60" si="8">B52+1</f>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="8"/>
@@ -17180,7 +17180,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="8"/>
@@ -17272,7 +17272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="8"/>
@@ -17364,7 +17364,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="8"/>
@@ -17456,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="8"/>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="8"/>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="8"/>
@@ -17682,7 +17682,7 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
@@ -17719,7 +17719,7 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
@@ -17756,7 +17756,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
@@ -17793,7 +17793,7 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D64" s="61"/>
       <c r="E64" s="61"/>
       <c r="F64" s="61"/>
@@ -17823,7 +17823,7 @@
       <c r="AD64" s="61"/>
       <c r="AE64" s="61"/>
     </row>
-    <row r="65" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D65" s="61"/>
       <c r="E65" s="61"/>
       <c r="F65" s="61"/>
@@ -17853,7 +17853,7 @@
       <c r="AD65" s="61"/>
       <c r="AE65" s="61"/>
     </row>
-    <row r="66" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D66" s="61"/>
       <c r="E66" s="61"/>
       <c r="F66" s="61"/>
@@ -17883,7 +17883,7 @@
       <c r="AD66" s="61"/>
       <c r="AE66" s="61"/>
     </row>
-    <row r="67" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D67" s="61"/>
       <c r="E67" s="61"/>
       <c r="F67" s="61"/>
@@ -17913,7 +17913,7 @@
       <c r="AD67" s="61"/>
       <c r="AE67" s="61"/>
     </row>
-    <row r="68" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D68" s="61"/>
       <c r="E68" s="61"/>
       <c r="F68" s="61"/>
@@ -17943,7 +17943,7 @@
       <c r="AD68" s="61"/>
       <c r="AE68" s="61"/>
     </row>
-    <row r="69" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D69" s="61"/>
       <c r="E69" s="61"/>
       <c r="F69" s="61"/>
@@ -17973,7 +17973,7 @@
       <c r="AD69" s="61"/>
       <c r="AE69" s="61"/>
     </row>
-    <row r="70" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D70" s="61"/>
       <c r="E70" s="61"/>
       <c r="F70" s="61"/>
@@ -18003,7 +18003,7 @@
       <c r="AD70" s="61"/>
       <c r="AE70" s="61"/>
     </row>
-    <row r="71" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D71" s="61"/>
       <c r="E71" s="61"/>
       <c r="F71" s="61"/>
@@ -18033,7 +18033,7 @@
       <c r="AD71" s="61"/>
       <c r="AE71" s="61"/>
     </row>
-    <row r="72" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D72" s="61"/>
       <c r="E72" s="61"/>
       <c r="F72" s="61"/>
@@ -18063,7 +18063,7 @@
       <c r="AD72" s="61"/>
       <c r="AE72" s="61"/>
     </row>
-    <row r="73" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D73" s="61"/>
       <c r="E73" s="61"/>
       <c r="F73" s="61"/>
@@ -18093,7 +18093,7 @@
       <c r="AD73" s="61"/>
       <c r="AE73" s="61"/>
     </row>
-    <row r="74" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D74" s="61"/>
       <c r="E74" s="61"/>
       <c r="F74" s="61"/>
@@ -18123,7 +18123,7 @@
       <c r="AD74" s="61"/>
       <c r="AE74" s="61"/>
     </row>
-    <row r="75" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D75" s="61"/>
       <c r="E75" s="61"/>
       <c r="F75" s="61"/>
@@ -18153,7 +18153,7 @@
       <c r="AD75" s="61"/>
       <c r="AE75" s="61"/>
     </row>
-    <row r="76" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D76" s="61"/>
       <c r="E76" s="61"/>
       <c r="F76" s="61"/>
@@ -18183,7 +18183,7 @@
       <c r="AD76" s="61"/>
       <c r="AE76" s="61"/>
     </row>
-    <row r="77" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D77" s="61"/>
       <c r="E77" s="61"/>
       <c r="F77" s="61"/>
@@ -18213,7 +18213,7 @@
       <c r="AD77" s="61"/>
       <c r="AE77" s="61"/>
     </row>
-    <row r="78" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D78" s="61"/>
       <c r="E78" s="61"/>
       <c r="F78" s="61"/>
@@ -18243,7 +18243,7 @@
       <c r="AD78" s="61"/>
       <c r="AE78" s="61"/>
     </row>
-    <row r="79" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D79" s="61"/>
       <c r="E79" s="61"/>
       <c r="F79" s="61"/>
@@ -18273,7 +18273,7 @@
       <c r="AD79" s="61"/>
       <c r="AE79" s="61"/>
     </row>
-    <row r="80" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D80" s="61"/>
       <c r="E80" s="61"/>
       <c r="F80" s="61"/>
@@ -18303,7 +18303,7 @@
       <c r="AD80" s="61"/>
       <c r="AE80" s="61"/>
     </row>
-    <row r="81" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D81" s="61"/>
       <c r="E81" s="61"/>
       <c r="F81" s="61"/>
@@ -18333,7 +18333,7 @@
       <c r="AD81" s="61"/>
       <c r="AE81" s="61"/>
     </row>
-    <row r="82" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D82" s="61"/>
       <c r="E82" s="61"/>
       <c r="F82" s="61"/>
@@ -18363,7 +18363,7 @@
       <c r="AD82" s="61"/>
       <c r="AE82" s="61"/>
     </row>
-    <row r="83" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D83" s="61"/>
       <c r="E83" s="61"/>
       <c r="F83" s="61"/>
@@ -18393,7 +18393,7 @@
       <c r="AD83" s="61"/>
       <c r="AE83" s="61"/>
     </row>
-    <row r="84" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D84" s="61"/>
       <c r="E84" s="61"/>
       <c r="F84" s="61"/>
@@ -18423,7 +18423,7 @@
       <c r="AD84" s="61"/>
       <c r="AE84" s="61"/>
     </row>
-    <row r="85" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D85" s="61"/>
       <c r="E85" s="61"/>
       <c r="F85" s="61"/>
@@ -18453,7 +18453,7 @@
       <c r="AD85" s="61"/>
       <c r="AE85" s="61"/>
     </row>
-    <row r="86" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D86" s="61"/>
       <c r="E86" s="61"/>
       <c r="F86" s="61"/>
@@ -18483,7 +18483,7 @@
       <c r="AD86" s="61"/>
       <c r="AE86" s="61"/>
     </row>
-    <row r="87" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:31" x14ac:dyDescent="0.35">
       <c r="D87" s="61"/>
       <c r="E87" s="61"/>
       <c r="F87" s="61"/>
@@ -18532,27 +18532,27 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="68" customWidth="1"/>
-    <col min="8" max="17" width="9.109375" style="68"/>
-    <col min="18" max="18" width="9.109375" style="68" customWidth="1"/>
-    <col min="19" max="21" width="9.109375" style="68"/>
-    <col min="22" max="30" width="9.109375" style="68" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="13.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="68" customWidth="1"/>
+    <col min="8" max="17" width="9.08984375" style="68"/>
+    <col min="18" max="18" width="9.08984375" style="68" customWidth="1"/>
+    <col min="19" max="21" width="9.08984375" style="68"/>
+    <col min="22" max="30" width="9.08984375" style="68" customWidth="1"/>
+    <col min="31" max="16384" width="9.08984375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>104</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -18718,7 +18718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -18762,7 +18762,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -18854,7 +18854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f>B4+1</f>
@@ -18946,7 +18946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" ref="B6:B15" si="0">B5+1</f>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -19130,7 +19130,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -19169,7 +19169,7 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -19208,7 +19208,7 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -19247,7 +19247,7 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -19286,7 +19286,7 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -19325,7 +19325,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
@@ -19364,7 +19364,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <f t="shared" si="0"/>
@@ -19403,7 +19403,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="141"/>
       <c r="B15" s="13">
         <f t="shared" si="0"/>
@@ -19442,7 +19442,7 @@
       <c r="AC15"/>
       <c r="AD15" s="21"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="141"/>
       <c r="B16" s="13">
         <v>13</v>
@@ -19476,7 +19476,7 @@
       <c r="AC16"/>
       <c r="AD16" s="21"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <v>14</v>
@@ -19510,7 +19510,7 @@
       <c r="AC17"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="142"/>
       <c r="B18" s="88">
         <v>15</v>
@@ -19544,7 +19544,7 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="22"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="140">
         <v>2</v>
       </c>
@@ -19564,79 +19564,79 @@
         <v>105</v>
       </c>
       <c r="G19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="10">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f>B19+1</f>
@@ -19656,79 +19656,79 @@
         <v>108</v>
       </c>
       <c r="G20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="W20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Z20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AB20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AC20">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AD20" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" ref="B21:B30" si="2">B20+1</f>
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
@@ -19912,7 +19912,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="2"/>
@@ -19951,7 +19951,7 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="2"/>
@@ -19961,7 +19961,7 @@
         <v>111</v>
       </c>
       <c r="D24" s="51">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24"/>
@@ -19990,7 +19990,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <f t="shared" si="2"/>
@@ -20029,7 +20029,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <f t="shared" si="2"/>
@@ -20068,7 +20068,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="141"/>
       <c r="B27" s="13">
         <f t="shared" si="2"/>
@@ -20107,7 +20107,7 @@
       <c r="AC27"/>
       <c r="AD27" s="21"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="141"/>
       <c r="B28" s="13">
         <f t="shared" si="2"/>
@@ -20146,7 +20146,7 @@
       <c r="AC28"/>
       <c r="AD28" s="21"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" si="2"/>
@@ -20156,7 +20156,7 @@
         <v>116</v>
       </c>
       <c r="D29" s="51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29"/>
@@ -20185,7 +20185,7 @@
       <c r="AC29"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
@@ -20195,7 +20195,7 @@
         <v>117</v>
       </c>
       <c r="D30" s="51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30"/>
@@ -20224,7 +20224,7 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <v>13</v>
@@ -20258,7 +20258,7 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <v>14</v>
@@ -20292,7 +20292,7 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="142"/>
       <c r="B33" s="88">
         <v>15</v>
@@ -20326,7 +20326,7 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="22"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="140">
         <v>3</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f>B34+1</f>
@@ -20510,7 +20510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" ref="B36:B45" si="4">B35+1</f>
@@ -20602,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <f t="shared" si="4"/>
@@ -20694,7 +20694,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <f t="shared" si="4"/>
@@ -20733,7 +20733,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="141"/>
       <c r="B39" s="13">
         <f t="shared" si="4"/>
@@ -20772,7 +20772,7 @@
       <c r="AC39"/>
       <c r="AD39" s="21"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="141"/>
       <c r="B40" s="13">
         <f t="shared" si="4"/>
@@ -20811,7 +20811,7 @@
       <c r="AC40"/>
       <c r="AD40" s="21"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" si="4"/>
@@ -20850,7 +20850,7 @@
       <c r="AC41"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="4"/>
@@ -20889,7 +20889,7 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="4"/>
@@ -20928,7 +20928,7 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="4"/>
@@ -20938,7 +20938,7 @@
         <v>116</v>
       </c>
       <c r="D44" s="51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44"/>
@@ -20967,7 +20967,7 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="4"/>
@@ -20977,7 +20977,7 @@
         <v>117</v>
       </c>
       <c r="D45" s="51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45"/>
@@ -21006,7 +21006,7 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <v>13</v>
@@ -21040,7 +21040,7 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <v>14</v>
@@ -21074,7 +21074,7 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="142"/>
       <c r="B48" s="88">
         <v>15</v>
@@ -21108,7 +21108,7 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="22"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="140">
         <v>5</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <f>B49+1</f>
@@ -21292,7 +21292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="141"/>
       <c r="B51" s="13">
         <f t="shared" ref="B51:B60" si="6">B50+1</f>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="141"/>
       <c r="B52" s="13">
         <f t="shared" si="6"/>
@@ -21476,7 +21476,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" si="6"/>
@@ -21515,7 +21515,7 @@
       <c r="AC53"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="6"/>
@@ -21554,7 +21554,7 @@
       <c r="AC54"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="6"/>
@@ -21593,7 +21593,7 @@
       <c r="AC55"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="6"/>
@@ -21632,7 +21632,7 @@
       <c r="AC56"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="6"/>
@@ -21671,7 +21671,7 @@
       <c r="AC57"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="6"/>
@@ -21710,7 +21710,7 @@
       <c r="AC58"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="6"/>
@@ -21720,7 +21720,7 @@
         <v>116</v>
       </c>
       <c r="D59" s="51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59"/>
@@ -21749,7 +21749,7 @@
       <c r="AC59"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="6"/>
@@ -21759,7 +21759,7 @@
         <v>117</v>
       </c>
       <c r="D60" s="51">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60"/>
@@ -21788,7 +21788,7 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>13</v>
@@ -21822,7 +21822,7 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>14</v>
@@ -21856,7 +21856,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>15</v>
@@ -21907,23 +21907,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98EFC89-2E31-4A70-A48F-E4D762144DE5}">
   <dimension ref="A1:AD87"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80:D84"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="13.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>118</v>
       </c>
@@ -21957,7 +21957,7 @@
       <c r="AC1" s="62"/>
       <c r="AD1" s="62"/>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -21995,7 +21995,7 @@
       <c r="AC2" s="45"/>
       <c r="AD2" s="45"/>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -22039,7 +22039,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="64"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -22087,7 +22087,7 @@
       <c r="AC4"/>
       <c r="AD4" s="20"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B12" si="0">B4+1</f>
@@ -22135,7 +22135,7 @@
       <c r="AC5"/>
       <c r="AD5" s="21"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -22183,7 +22183,7 @@
       <c r="AC6"/>
       <c r="AD6" s="21"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -22231,7 +22231,7 @@
       <c r="AC7"/>
       <c r="AD7" s="21"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -22278,7 +22278,7 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -22325,7 +22325,7 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -22372,7 +22372,7 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -22419,7 +22419,7 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -22466,7 +22466,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <v>10</v>
@@ -22512,7 +22512,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -22550,7 +22550,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -22588,7 +22588,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="140">
         <v>2</v>
       </c>
@@ -22636,7 +22636,7 @@
       <c r="AC16"/>
       <c r="AD16" s="20"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B24" si="1">B16+1</f>
@@ -22684,7 +22684,7 @@
       <c r="AC17"/>
       <c r="AD17" s="21"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
@@ -22732,7 +22732,7 @@
       <c r="AC18"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
@@ -22780,7 +22780,7 @@
       <c r="AC19"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
@@ -22827,7 +22827,7 @@
       <c r="AC20"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
@@ -22874,7 +22874,7 @@
       <c r="AC21"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
@@ -22921,7 +22921,7 @@
       <c r="AC22"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
@@ -22968,7 +22968,7 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
@@ -23015,7 +23015,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <v>10</v>
@@ -23061,7 +23061,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -23099,7 +23099,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -23137,7 +23137,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="140">
         <v>3</v>
       </c>
@@ -23185,7 +23185,7 @@
       <c r="AC28"/>
       <c r="AD28" s="20"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B36" si="2">B28+1</f>
@@ -23233,7 +23233,7 @@
       <c r="AC29"/>
       <c r="AD29" s="21"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
@@ -23253,7 +23253,7 @@
         <v>126</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -23281,7 +23281,7 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
@@ -23329,7 +23329,7 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
@@ -23376,7 +23376,7 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
@@ -23423,7 +23423,7 @@
       <c r="AC33"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="2"/>
@@ -23470,7 +23470,7 @@
       <c r="AC34"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="2"/>
@@ -23517,7 +23517,7 @@
       <c r="AC35"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="2"/>
@@ -23564,7 +23564,7 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <v>10</v>
@@ -23610,7 +23610,7 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -23648,7 +23648,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -23686,7 +23686,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="140">
         <v>4</v>
       </c>
@@ -23734,7 +23734,7 @@
       <c r="AC40"/>
       <c r="AD40" s="20"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B48" si="3">B40+1</f>
@@ -23782,7 +23782,7 @@
       <c r="AC41"/>
       <c r="AD41" s="21"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="3"/>
@@ -23805,7 +23805,7 @@
         <v>3</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42"/>
       <c r="J42"/>
@@ -23830,7 +23830,7 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="3"/>
@@ -23878,7 +23878,7 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="3"/>
@@ -23925,7 +23925,7 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="3"/>
@@ -23972,7 +23972,7 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="3"/>
@@ -24019,7 +24019,7 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="3"/>
@@ -24066,7 +24066,7 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="3"/>
@@ -24113,7 +24113,7 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <v>10</v>
@@ -24159,7 +24159,7 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -24197,7 +24197,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -24235,7 +24235,7 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="140">
         <v>5</v>
       </c>
@@ -24283,7 +24283,7 @@
       <c r="AC52"/>
       <c r="AD52" s="20"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="141"/>
       <c r="B53" s="13">
         <f t="shared" ref="B53:B60" si="4">B52+1</f>
@@ -24331,7 +24331,7 @@
       <c r="AC53"/>
       <c r="AD53" s="21"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="141"/>
       <c r="B54" s="13">
         <f t="shared" si="4"/>
@@ -24351,10 +24351,10 @@
         <v>126</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54"/>
       <c r="J54"/>
@@ -24379,7 +24379,7 @@
       <c r="AC54"/>
       <c r="AD54" s="21"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="141"/>
       <c r="B55" s="13">
         <f t="shared" si="4"/>
@@ -24427,7 +24427,7 @@
       <c r="AC55"/>
       <c r="AD55" s="21"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="141"/>
       <c r="B56" s="13">
         <f t="shared" si="4"/>
@@ -24474,7 +24474,7 @@
       <c r="AC56"/>
       <c r="AD56" s="21"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="141"/>
       <c r="B57" s="13">
         <f t="shared" si="4"/>
@@ -24521,7 +24521,7 @@
       <c r="AC57"/>
       <c r="AD57" s="21"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="141"/>
       <c r="B58" s="13">
         <f t="shared" si="4"/>
@@ -24568,7 +24568,7 @@
       <c r="AC58"/>
       <c r="AD58" s="21"/>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="141"/>
       <c r="B59" s="13">
         <f t="shared" si="4"/>
@@ -24615,7 +24615,7 @@
       <c r="AC59"/>
       <c r="AD59" s="21"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="141"/>
       <c r="B60" s="13">
         <f t="shared" si="4"/>
@@ -24662,7 +24662,7 @@
       <c r="AC60"/>
       <c r="AD60" s="21"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="141"/>
       <c r="B61" s="13">
         <v>10</v>
@@ -24708,7 +24708,7 @@
       <c r="AC61"/>
       <c r="AD61" s="21"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="141"/>
       <c r="B62" s="13">
         <v>11</v>
@@ -24746,7 +24746,7 @@
       <c r="AC62"/>
       <c r="AD62" s="21"/>
     </row>
-    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="142"/>
       <c r="B63" s="88">
         <v>12</v>
@@ -24784,7 +24784,7 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="140">
         <v>6</v>
       </c>
@@ -24832,7 +24832,7 @@
       <c r="AC64"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="141"/>
       <c r="B65" s="13">
         <f t="shared" ref="B65:B72" si="5">B64+1</f>
@@ -24880,7 +24880,7 @@
       <c r="AC65"/>
       <c r="AD65" s="21"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="141"/>
       <c r="B66" s="13">
         <f t="shared" si="5"/>
@@ -24900,7 +24900,7 @@
         <v>126</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -24928,7 +24928,7 @@
       <c r="AC66"/>
       <c r="AD66" s="21"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="141"/>
       <c r="B67" s="13">
         <f t="shared" si="5"/>
@@ -24976,7 +24976,7 @@
       <c r="AC67"/>
       <c r="AD67" s="21"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="141"/>
       <c r="B68" s="13">
         <f t="shared" si="5"/>
@@ -25023,7 +25023,7 @@
       <c r="AC68"/>
       <c r="AD68" s="21"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="141"/>
       <c r="B69" s="13">
         <f t="shared" si="5"/>
@@ -25070,7 +25070,7 @@
       <c r="AC69"/>
       <c r="AD69" s="21"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="141"/>
       <c r="B70" s="13">
         <f t="shared" si="5"/>
@@ -25117,7 +25117,7 @@
       <c r="AC70"/>
       <c r="AD70" s="21"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="141"/>
       <c r="B71" s="13">
         <f t="shared" si="5"/>
@@ -25164,7 +25164,7 @@
       <c r="AC71"/>
       <c r="AD71" s="21"/>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" s="141"/>
       <c r="B72" s="13">
         <f t="shared" si="5"/>
@@ -25211,7 +25211,7 @@
       <c r="AC72"/>
       <c r="AD72" s="21"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" s="141"/>
       <c r="B73" s="13">
         <v>10</v>
@@ -25257,7 +25257,7 @@
       <c r="AC73"/>
       <c r="AD73" s="21"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" s="141"/>
       <c r="B74" s="13">
         <v>11</v>
@@ -25295,7 +25295,7 @@
       <c r="AC74"/>
       <c r="AD74" s="21"/>
     </row>
-    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="142"/>
       <c r="B75" s="88">
         <v>12</v>
@@ -25333,7 +25333,7 @@
       <c r="AC75" s="11"/>
       <c r="AD75" s="22"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" s="140">
         <v>7</v>
       </c>
@@ -25381,7 +25381,7 @@
       <c r="AC76"/>
       <c r="AD76" s="20"/>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" s="141"/>
       <c r="B77" s="13">
         <f t="shared" ref="B77:B84" si="6">B76+1</f>
@@ -25429,7 +25429,7 @@
       <c r="AC77"/>
       <c r="AD77" s="21"/>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" s="141"/>
       <c r="B78" s="13">
         <f t="shared" si="6"/>
@@ -25452,7 +25452,7 @@
         <v>3</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I78"/>
       <c r="J78"/>
@@ -25477,7 +25477,7 @@
       <c r="AC78"/>
       <c r="AD78" s="21"/>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79" s="141"/>
       <c r="B79" s="13">
         <f t="shared" si="6"/>
@@ -25525,7 +25525,7 @@
       <c r="AC79"/>
       <c r="AD79" s="21"/>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80" s="141"/>
       <c r="B80" s="13">
         <f t="shared" si="6"/>
@@ -25572,7 +25572,7 @@
       <c r="AC80"/>
       <c r="AD80" s="21"/>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81" s="141"/>
       <c r="B81" s="13">
         <f t="shared" si="6"/>
@@ -25619,7 +25619,7 @@
       <c r="AC81"/>
       <c r="AD81" s="21"/>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" s="141"/>
       <c r="B82" s="13">
         <f t="shared" si="6"/>
@@ -25666,7 +25666,7 @@
       <c r="AC82"/>
       <c r="AD82" s="21"/>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83" s="141"/>
       <c r="B83" s="13">
         <f t="shared" si="6"/>
@@ -25713,7 +25713,7 @@
       <c r="AC83"/>
       <c r="AD83" s="21"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84" s="141"/>
       <c r="B84" s="13">
         <f t="shared" si="6"/>
@@ -25760,7 +25760,7 @@
       <c r="AC84"/>
       <c r="AD84" s="21"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" s="141"/>
       <c r="B85" s="13">
         <v>10</v>
@@ -25806,7 +25806,7 @@
       <c r="AC85"/>
       <c r="AD85" s="21"/>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" s="141"/>
       <c r="B86" s="13">
         <v>11</v>
@@ -25844,7 +25844,7 @@
       <c r="AC86"/>
       <c r="AD86" s="21"/>
     </row>
-    <row r="87" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="142"/>
       <c r="B87" s="88">
         <v>12</v>
@@ -25902,23 +25902,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED44E71-8461-49EC-BDE2-25D71C22BD0F}">
   <dimension ref="A1:AD51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="68" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="68" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="68"/>
+    <col min="1" max="1" width="13.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="68" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="68" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="68" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>143</v>
       </c>
@@ -26002,7 +26002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="125"/>
       <c r="B2" s="125"/>
       <c r="C2" s="125"/>
@@ -26084,7 +26084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="63" t="s">
         <v>11</v>
       </c>
@@ -26128,7 +26128,7 @@
       <c r="AC3" s="64"/>
       <c r="AD3" s="65"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="140">
         <v>1</v>
       </c>
@@ -26220,7 +26220,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="141"/>
       <c r="B5" s="13">
         <f t="shared" ref="B5:B13" si="0">B4+1</f>
@@ -26312,7 +26312,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="141"/>
       <c r="B6" s="13">
         <f t="shared" si="0"/>
@@ -26351,7 +26351,7 @@
       <c r="AC6"/>
       <c r="AD6" s="21"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="141"/>
       <c r="B7" s="13">
         <f t="shared" si="0"/>
@@ -26390,7 +26390,7 @@
       <c r="AC7"/>
       <c r="AD7" s="21"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="141"/>
       <c r="B8" s="13">
         <f t="shared" si="0"/>
@@ -26429,7 +26429,7 @@
       <c r="AC8"/>
       <c r="AD8" s="21"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="141"/>
       <c r="B9" s="13">
         <f t="shared" si="0"/>
@@ -26468,7 +26468,7 @@
       <c r="AC9"/>
       <c r="AD9" s="21"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="141"/>
       <c r="B10" s="13">
         <f t="shared" si="0"/>
@@ -26507,7 +26507,7 @@
       <c r="AC10"/>
       <c r="AD10" s="21"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="141"/>
       <c r="B11" s="13">
         <f t="shared" si="0"/>
@@ -26546,7 +26546,7 @@
       <c r="AC11"/>
       <c r="AD11" s="21"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="141"/>
       <c r="B12" s="13">
         <f t="shared" si="0"/>
@@ -26585,7 +26585,7 @@
       <c r="AC12"/>
       <c r="AD12" s="21"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="141"/>
       <c r="B13" s="13">
         <f t="shared" si="0"/>
@@ -26624,7 +26624,7 @@
       <c r="AC13"/>
       <c r="AD13" s="21"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="141"/>
       <c r="B14" s="13">
         <v>11</v>
@@ -26662,7 +26662,7 @@
       <c r="AC14"/>
       <c r="AD14" s="21"/>
     </row>
-    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="142"/>
       <c r="B15" s="88">
         <v>12</v>
@@ -26696,7 +26696,7 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="140">
         <v>4</v>
       </c>
@@ -26788,7 +26788,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="141"/>
       <c r="B17" s="13">
         <f t="shared" ref="B17:B25" si="1">B16+1</f>
@@ -26880,7 +26880,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="141"/>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
@@ -26919,7 +26919,7 @@
       <c r="AC18"/>
       <c r="AD18" s="21"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="141"/>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
@@ -26958,7 +26958,7 @@
       <c r="AC19"/>
       <c r="AD19" s="21"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="141"/>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
@@ -26997,7 +26997,7 @@
       <c r="AC20"/>
       <c r="AD20" s="21"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="141"/>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
@@ -27036,7 +27036,7 @@
       <c r="AC21"/>
       <c r="AD21" s="21"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="141"/>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
@@ -27075,7 +27075,7 @@
       <c r="AC22"/>
       <c r="AD22" s="21"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="141"/>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
@@ -27114,7 +27114,7 @@
       <c r="AC23"/>
       <c r="AD23" s="21"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="141"/>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
@@ -27153,7 +27153,7 @@
       <c r="AC24"/>
       <c r="AD24" s="21"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="141"/>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
@@ -27192,7 +27192,7 @@
       <c r="AC25"/>
       <c r="AD25" s="21"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="141"/>
       <c r="B26" s="13">
         <v>11</v>
@@ -27230,7 +27230,7 @@
       <c r="AC26"/>
       <c r="AD26" s="21"/>
     </row>
-    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="142"/>
       <c r="B27" s="88">
         <v>12</v>
@@ -27264,7 +27264,7 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="140">
         <v>6</v>
       </c>
@@ -27356,7 +27356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="141"/>
       <c r="B29" s="13">
         <f t="shared" ref="B29:B37" si="2">B28+1</f>
@@ -27448,7 +27448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="141"/>
       <c r="B30" s="13">
         <f t="shared" si="2"/>
@@ -27487,7 +27487,7 @@
       <c r="AC30"/>
       <c r="AD30" s="21"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="141"/>
       <c r="B31" s="13">
         <f t="shared" si="2"/>
@@ -27526,7 +27526,7 @@
       <c r="AC31"/>
       <c r="AD31" s="21"/>
     </row>
-    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="141"/>
       <c r="B32" s="13">
         <f t="shared" si="2"/>
@@ -27565,7 +27565,7 @@
       <c r="AC32"/>
       <c r="AD32" s="21"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="141"/>
       <c r="B33" s="13">
         <f t="shared" si="2"/>
@@ -27575,7 +27575,7 @@
         <v>117</v>
       </c>
       <c r="D33" s="51">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33"/>
@@ -27604,7 +27604,7 @@
       <c r="AC33"/>
       <c r="AD33" s="21"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="141"/>
       <c r="B34" s="13">
         <f t="shared" si="2"/>
@@ -27643,7 +27643,7 @@
       <c r="AC34"/>
       <c r="AD34" s="21"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="141"/>
       <c r="B35" s="13">
         <f t="shared" si="2"/>
@@ -27653,7 +27653,7 @@
         <v>114</v>
       </c>
       <c r="D35" s="51">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35"/>
@@ -27682,7 +27682,7 @@
       <c r="AC35"/>
       <c r="AD35" s="21"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="141"/>
       <c r="B36" s="13">
         <f t="shared" si="2"/>
@@ -27721,7 +27721,7 @@
       <c r="AC36"/>
       <c r="AD36" s="21"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="141"/>
       <c r="B37" s="13">
         <f t="shared" si="2"/>
@@ -27760,7 +27760,7 @@
       <c r="AC37"/>
       <c r="AD37" s="21"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="141"/>
       <c r="B38" s="13">
         <v>11</v>
@@ -27798,7 +27798,7 @@
       <c r="AC38"/>
       <c r="AD38" s="21"/>
     </row>
-    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="142"/>
       <c r="B39" s="88">
         <v>12</v>
@@ -27832,7 +27832,7 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="140">
         <v>7</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="141"/>
       <c r="B41" s="13">
         <f t="shared" ref="B41:B49" si="3">B40+1</f>
@@ -28016,7 +28016,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="141"/>
       <c r="B42" s="13">
         <f t="shared" si="3"/>
@@ -28055,7 +28055,7 @@
       <c r="AC42"/>
       <c r="AD42" s="21"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="141"/>
       <c r="B43" s="13">
         <f t="shared" si="3"/>
@@ -28094,7 +28094,7 @@
       <c r="AC43"/>
       <c r="AD43" s="21"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="141"/>
       <c r="B44" s="13">
         <f t="shared" si="3"/>
@@ -28133,7 +28133,7 @@
       <c r="AC44"/>
       <c r="AD44" s="21"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="141"/>
       <c r="B45" s="13">
         <f t="shared" si="3"/>
@@ -28143,7 +28143,7 @@
         <v>117</v>
       </c>
       <c r="D45" s="51">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45"/>
@@ -28172,7 +28172,7 @@
       <c r="AC45"/>
       <c r="AD45" s="21"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="141"/>
       <c r="B46" s="13">
         <f t="shared" si="3"/>
@@ -28211,7 +28211,7 @@
       <c r="AC46"/>
       <c r="AD46" s="21"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="141"/>
       <c r="B47" s="13">
         <f t="shared" si="3"/>
@@ -28221,7 +28221,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="51">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47"/>
@@ -28250,7 +28250,7 @@
       <c r="AC47"/>
       <c r="AD47" s="21"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="141"/>
       <c r="B48" s="13">
         <f t="shared" si="3"/>
@@ -28289,7 +28289,7 @@
       <c r="AC48"/>
       <c r="AD48" s="21"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="141"/>
       <c r="B49" s="13">
         <f t="shared" si="3"/>
@@ -28299,7 +28299,7 @@
         <v>144</v>
       </c>
       <c r="D49" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49"/>
@@ -28328,7 +28328,7 @@
       <c r="AC49"/>
       <c r="AD49" s="21"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="141"/>
       <c r="B50" s="13">
         <v>11</v>
@@ -28337,7 +28337,7 @@
         <v>145</v>
       </c>
       <c r="D50" s="51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50"/>
@@ -28366,7 +28366,7 @@
       <c r="AC50"/>
       <c r="AD50" s="21"/>
     </row>
-    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="142"/>
       <c r="B51" s="88">
         <v>12</v>
@@ -28420,19 +28420,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="62" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="143" t="s">
         <v>147</v>
       </c>
@@ -28443,7 +28443,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="144"/>
       <c r="C4" s="83">
         <v>2</v>
@@ -28452,7 +28452,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="145" t="s">
         <v>65</v>
       </c>
@@ -28463,7 +28463,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="146"/>
       <c r="C6" s="83">
         <v>2</v>
@@ -28483,9 +28483,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D9AF0C12AF32784AA732DC10CF87510A" ma:contentTypeVersion="12" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="704088ab89168f16f5be5ae1239f37bb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbae9298-c5c8-4c5d-86f9-781c8fd812a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa1512bd7375e312c8e45d43a3c9a072" ns2:_="">
-    <xsd:import namespace="cbae9298-c5c8-4c5d-86f9-781c8fd812a7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E337216F16624F4C93495A15D98BF483" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="77faa82a314d56595c04a308a2b6d944">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20c2104b-e2c4-498c-9051-7e14987438c5" xmlns:ns3="837a5165-151f-4dc6-8559-37e708a28e7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd2a54d4065cc214eedf683bd0812350" ns2:_="" ns3:_="">
+    <xsd:import namespace="20c2104b-e2c4-498c-9051-7e14987438c5"/>
+    <xsd:import namespace="837a5165-151f-4dc6-8559-37e708a28e7d"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -28496,13 +28497,16 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -28510,7 +28514,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cbae9298-c5c8-4c5d-86f9-781c8fd812a7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="20c2104b-e2c4-498c-9051-7e14987438c5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -28535,42 +28539,69 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de Imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="632f545a-f984-4dd3-ab31-738ecd40a744" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="837a5165-151f-4dc6-8559-37e708a28e7d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{12406878-88f3-4067-ba7f-9798e354b325}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="837a5165-151f-4dc6-8559-37e708a28e7d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -28683,18 +28714,24 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <TaxCatchAll xmlns="837a5165-151f-4dc6-8559-37e708a28e7d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20c2104b-e2c4-498c-9051-7e14987438c5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD192BC-D6B7-469C-B1A1-CD0BB7E0B557}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F899DE00-A8B9-4358-90B8-F380A89BC7B0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cbae9298-c5c8-4c5d-86f9-781c8fd812a7"/>
+    <ds:schemaRef ds:uri="20c2104b-e2c4-498c-9051-7e14987438c5"/>
+    <ds:schemaRef ds:uri="837a5165-151f-4dc6-8559-37e708a28e7d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -28718,6 +28755,8 @@
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="837a5165-151f-4dc6-8559-37e708a28e7d"/>
+    <ds:schemaRef ds:uri="20c2104b-e2c4-498c-9051-7e14987438c5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>